--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AA6BB-5EB5-403B-9970-E17A8BCF124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E05F15-6D0D-4430-9E26-3AFEA772A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fluid Properties" sheetId="1" r:id="rId1"/>
-    <sheet name="Hydrate Cell Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="Kihara Cell Parameters" sheetId="3" r:id="rId3"/>
-    <sheet name="Vapor Pressure Constants" sheetId="4" r:id="rId4"/>
-    <sheet name="Binary Interaction Parameters" sheetId="5" r:id="rId5"/>
-    <sheet name="Henrys Law Parameters" sheetId="6" r:id="rId6"/>
-    <sheet name="Credits" sheetId="7" r:id="rId7"/>
+    <sheet name="Notes" sheetId="9" r:id="rId1"/>
+    <sheet name="Fluid Properties" sheetId="1" r:id="rId2"/>
+    <sheet name="Hydrate Cell Properties" sheetId="2" r:id="rId3"/>
+    <sheet name="Kihara Cell Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Vapor Pressure Constants" sheetId="4" r:id="rId5"/>
+    <sheet name="Binary Interaction Parameters" sheetId="5" r:id="rId6"/>
+    <sheet name="Henrys Law Parameters" sheetId="6" r:id="rId7"/>
+    <sheet name="Credits" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>Compound ID</t>
   </si>
@@ -111,9 +123,6 @@
     </r>
   </si>
   <si>
-    <t>Vi</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
   </si>
   <si>
     <t>H4</t>
-  </si>
-  <si>
-    <t>Fluid Properties Data:</t>
   </si>
   <si>
     <r>
@@ -353,6 +359,60 @@
   <si>
     <t>{118:1}</t>
   </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>C4H10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Cells Highlighted in Yellow Indicate Data with an Uncertain Source</t>
+  </si>
+  <si>
+    <t>Cells Highlighted in Red are Believed to be Incorrect</t>
+  </si>
+  <si>
+    <t>Fluid Properties:</t>
+  </si>
+  <si>
+    <t>Hydrate Cell Propeties:</t>
+  </si>
+  <si>
+    <t>Kihara Cell Parameters:</t>
+  </si>
+  <si>
+    <t>Vapor Pressure Constants:</t>
+  </si>
+  <si>
+    <t>Henry's Law Parameters:</t>
+  </si>
+  <si>
+    <t>McMullan, R. K.; Jeffrey, G. A. Polyhedral Clathrate Hydrates. IX. Structure of Ethylene Oxide Hydrate. J. Chem. Phys. 1965, 42, 2745.</t>
+  </si>
+  <si>
+    <t>Mak, T. C. W.; McMullan, R. K. Polyhedral Clathrate Hydrates. X. Structure of the Double Hydrate of Tetrahydrofuran and Hydrogen Sulfide. J. Chem. Phys. 1965, 42, 2732.</t>
+  </si>
+  <si>
+    <t>Tee, L. S.; Gotoh, S.; Stewart, W. E. Molecular Parameters of Normal Fluids: The Kihara Potential with Spherical Core. Ind. Eng. Chem. Fundam. 1966, 5, 363.</t>
+  </si>
+  <si>
+    <t>0.0885</t>
+  </si>
+  <si>
+    <t>0.03443</t>
+  </si>
+  <si>
+    <t>(Taken from IEC-2000 model)</t>
+  </si>
+  <si>
+    <t>n-C4H10</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +423,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,8 +446,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +478,17 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -421,17 +499,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -444,9 +519,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -846,11 +926,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C089DB7-F083-4DCE-8B73-2262D81398E1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +970,7 @@
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,18 +990,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>647.096</v>
@@ -908,235 +1015,672 @@
       <c r="F2">
         <v>-6.6350000000000006E-2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8">
+        <v>190.56399999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4.5991999999999997</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.142E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-1.5900000000000001E-3</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>305.322</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.8722000000000003</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.6689999999999998E-2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>369.89</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4.2511999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>407.81</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3.629</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.184</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>398.3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.5796999999999999</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.1305</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>373.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>126.19199999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3.3957999999999999</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>190.56399999999999</v>
-      </c>
-      <c r="D3">
-        <v>4.5991999999999997</v>
-      </c>
-      <c r="E3">
-        <v>1.142E-2</v>
-      </c>
-      <c r="F3">
-        <v>-1.5900000000000001E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3.4499999999999998E-5</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <v>304.12819999999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7.3773</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.22394</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4.2849999999999999E-2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8">
+        <v>425</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>305.322</v>
-      </c>
-      <c r="D4">
-        <v>4.8722000000000003</v>
-      </c>
-      <c r="E4">
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="F4">
-        <v>2.6689999999999998E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.2899999999999998E-5</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>369.89</v>
-      </c>
-      <c r="D5">
-        <v>4.2511999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="F5">
-        <v>3.1359999999999999E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.0699999999999997E-5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
-        <v>407.81</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.629</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.184</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.3100000000000001E-5</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>398.3</v>
-      </c>
-      <c r="D7">
-        <v>5.5796999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.1305</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.4299999999999998E-5</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>373.1</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>126.19199999999999</v>
-      </c>
-      <c r="D9">
-        <v>3.3957999999999999</v>
-      </c>
-      <c r="E9">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.9959999999999999E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.57E-5</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>304.12819999999999</v>
-      </c>
-      <c r="D10">
-        <v>7.3773</v>
-      </c>
-      <c r="E10">
-        <v>0.22394</v>
-      </c>
-      <c r="F10">
-        <v>4.2849999999999999E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3.3899999999999997E-5</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C12" s="8">
+        <v>150.86000000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1144,12 +1688,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,53 +1709,53 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>512</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>3.9060000000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>6.593</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>8.0559999999999992</v>
       </c>
       <c r="F2">
@@ -1223,30 +1767,30 @@
       <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>3.9060000000000001</v>
       </c>
       <c r="J2">
         <v>20</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>51262</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>4.3259999999999996</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>7.0780000000000003</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>8.2850000000000001</v>
       </c>
       <c r="F3">
@@ -1258,30 +1802,30 @@
       <c r="H3">
         <v>50</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>4.3259999999999996</v>
       </c>
       <c r="J3">
         <v>24</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>0.13043478260869601</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>512</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>3.9020000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>6.6669999999999998</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>8.0790000000000006</v>
       </c>
       <c r="F4">
@@ -1293,30 +1837,30 @@
       <c r="H4">
         <v>50</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>3.9020000000000001</v>
       </c>
       <c r="J4">
         <v>20</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>0.11764705882352899</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>51264</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4.6820000000000004</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>7.4640000000000004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>8.782</v>
       </c>
       <c r="F5">
@@ -1328,18 +1872,18 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>4.6820000000000004</v>
       </c>
       <c r="J5">
         <v>28</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" s="4"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1347,12 +1891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,15 +1931,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>102.134</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>3.5640000000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1404,15 +1948,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>232.2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>3.5049999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1421,15 +1965,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>404.3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>4.0220000000000002</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.57399999999999995</v>
       </c>
     </row>
@@ -1438,15 +1982,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>493.71</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>4.5190000000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.6502</v>
       </c>
     </row>
@@ -1455,15 +1999,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>628.6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>4.7460000000000004</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.85899999999999999</v>
       </c>
     </row>
@@ -1472,15 +2016,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>554.4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>4.1849999999999996</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.65300000000000002</v>
       </c>
     </row>
@@ -1489,15 +2033,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>459.6</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>3.6070000000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.3508</v>
       </c>
     </row>
@@ -1506,15 +2050,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>142.1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>3.4689999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.34100000000000003</v>
       </c>
     </row>
@@ -1523,16 +2067,50 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>513.85</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>3.335</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>676.9</v>
+      </c>
+      <c r="D11">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="D12">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.217</v>
       </c>
     </row>
   </sheetData>
@@ -1541,12 +2119,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1570,223 +2148,292 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
         <v>4.6477000000000004</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>-5242.9790000000003</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>-8.7156000000000004E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>4.6765999999999996</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>-5263.9565000000002</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>-9.0153999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
         <v>4.6651999999999996</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>-5424.1108000000004</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>-8.8658000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>4.6445999999999996</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>-5150.3689999999997</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>-8.7553000000000006E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
         <v>4.6188000000000002</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>-5020.8289000000004</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>-8.3455000000000005E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5.2577999999999996</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-5650.5583999999999</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2.7789000000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-1.6202100000000001E-2</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.6818</v>
-      </c>
-      <c r="E8" s="5">
-        <v>-5455.2664000000004</v>
-      </c>
-      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.2577999999999996</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-5650.5583999999999</v>
+      </c>
+      <c r="F8" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G8" s="8">
-        <v>-8.9677999999999997E-3</v>
+      <c r="G8" s="6">
+        <v>-1.6202100000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.1448999999999998</v>
-      </c>
-      <c r="E9" s="5">
-        <v>-5544.3271999999997</v>
-      </c>
-      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.6818</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5455.2664000000004</v>
+      </c>
+      <c r="F9" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G9" s="8">
-        <v>-1.4844599999999999E-2</v>
+      <c r="G9" s="6">
+        <v>-8.9677999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.1448999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5544.3271999999997</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.7789000000000001</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1.4844599999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
         <v>5.1510999999999996</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="3">
         <v>-5595.4345999999996</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="3">
         <v>2.7789000000000001</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="6">
         <v>-1.60445E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>4.4065283610000003</v>
+      </c>
+      <c r="E13">
+        <v>-5150.7880299999997</v>
+      </c>
+      <c r="F13">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G13">
+        <v>-6.3176630000000003E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +2442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -1813,41 +2460,41 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1871,18 +2518,18 @@
       <c r="I2">
         <v>0.08</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3">
@@ -1903,13 +2550,13 @@
       <c r="I3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3.3000000000000002E-2</v>
@@ -1917,7 +2564,7 @@
       <c r="C4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1935,13 +2582,13 @@
       <c r="I4">
         <v>0.08</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.6E-2</v>
@@ -1952,7 +2599,7 @@
       <c r="D5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5">
@@ -1967,13 +2614,13 @@
       <c r="I5">
         <v>0.08</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2.5999999999999999E-2</v>
@@ -1987,7 +2634,7 @@
       <c r="E6">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6">
@@ -1999,13 +2646,13 @@
       <c r="I6">
         <v>4.7E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.03</v>
@@ -2022,7 +2669,7 @@
       <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7">
@@ -2031,13 +2678,13 @@
       <c r="I7">
         <v>0.17</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.09</v>
@@ -2057,19 +2704,19 @@
       <c r="G8">
         <v>-0.02</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.08</v>
@@ -2092,246 +2739,43 @@
       <c r="H9">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>-183.786</v>
-      </c>
-      <c r="D2">
-        <v>9112.5820000000003</v>
-      </c>
-      <c r="E2">
-        <v>25.040500000000002</v>
-      </c>
-      <c r="F2">
-        <v>-1.4999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>-268.44099999999997</v>
-      </c>
-      <c r="D3">
-        <v>13369.4</v>
-      </c>
-      <c r="E3">
-        <v>37.556100000000001</v>
-      </c>
-      <c r="F3">
-        <v>-2.3E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>-316.49</v>
-      </c>
-      <c r="D4">
-        <v>15922.7</v>
-      </c>
-      <c r="E4">
-        <v>44.328499999999998</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>96.115799999999993</v>
-      </c>
-      <c r="D5">
-        <v>-2472.5700000000002</v>
-      </c>
-      <c r="E5">
-        <v>-17.367999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>-60.923999999999999</v>
-      </c>
-      <c r="D6">
-        <v>9177.5339999999997</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>7.2779999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>-149.55099999999999</v>
-      </c>
-      <c r="D7">
-        <v>8227.3279999999995</v>
-      </c>
-      <c r="E7">
-        <v>20.232700000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.2899999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>-164.99700000000001</v>
-      </c>
-      <c r="D8">
-        <v>8433.6190000000006</v>
-      </c>
-      <c r="E8">
-        <v>21.560099999999998</v>
-      </c>
-      <c r="F8">
-        <v>8.4399999999999996E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>-159.86799999999999</v>
-      </c>
-      <c r="D9">
-        <v>8742.4259999999995</v>
-      </c>
-      <c r="E9">
-        <v>21.671199999999999</v>
-      </c>
-      <c r="F9">
-        <v>-1.1000000000000001E-3</v>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2345,47 +2789,300 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>-182.5915</v>
+      </c>
+      <c r="D2">
+        <v>9053.35</v>
+      </c>
+      <c r="E2">
+        <v>24.877700000000001</v>
+      </c>
+      <c r="F2">
+        <v>-1.45E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-266.69600000000003</v>
+      </c>
+      <c r="D3">
+        <v>13282.5</v>
+      </c>
+      <c r="E3">
+        <v>37.311999999999998</v>
+      </c>
+      <c r="F3">
+        <v>-2.2850000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>-316.49</v>
+      </c>
+      <c r="D4">
+        <v>15922.7</v>
+      </c>
+      <c r="E4">
+        <v>44.328499999999998</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>95.491</v>
+      </c>
+      <c r="D5">
+        <v>-2456.5</v>
+      </c>
+      <c r="E5">
+        <v>-17.255099999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>-60.923999999999999</v>
+      </c>
+      <c r="D6">
+        <v>9177.5339999999997</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7.2779999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>-148.57900000000001</v>
+      </c>
+      <c r="D7">
+        <v>8173.85</v>
+      </c>
+      <c r="E7">
+        <v>20.101199999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.2849999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>-164.99700000000001</v>
+      </c>
+      <c r="D8">
+        <v>8433.6190000000006</v>
+      </c>
+      <c r="E8">
+        <v>21.560099999999998</v>
+      </c>
+      <c r="F8">
+        <v>8.4399999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>-158.82900000000001</v>
+      </c>
+      <c r="D9">
+        <v>8685.6</v>
+      </c>
+      <c r="E9">
+        <v>21.530349999999999</v>
+      </c>
+      <c r="F9">
+        <v>-1.0950000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="K3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14DE83-8F46-468E-84C7-C7474194C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0423F-F557-4516-BD8A-038DCF845807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,33 @@
     <sheet name="Henrys Law Parameters" sheetId="8" r:id="rId6"/>
     <sheet name="A_int" sheetId="9" r:id="rId7"/>
     <sheet name="Langmuir Parameters" sheetId="10" r:id="rId8"/>
-    <sheet name="Credits" sheetId="11" r:id="rId9"/>
+    <sheet name="Salts Data" sheetId="12" r:id="rId9"/>
+    <sheet name="Inhibitor Data" sheetId="13" r:id="rId10"/>
+    <sheet name="Credits" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="z_cabr2_a">'Salts Data'!$G$9</definedName>
+    <definedName name="z_cabr2_c">'Salts Data'!$F$9</definedName>
+    <definedName name="z_cacl2_a">'Salts Data'!$G$7</definedName>
+    <definedName name="z_cacl2_c">'Salts Data'!$F$7</definedName>
+    <definedName name="z_kbr_a">'Salts Data'!$G$11</definedName>
+    <definedName name="z_kbr_c">'Salts Data'!$F$11</definedName>
+    <definedName name="z_kcl_a">'Salts Data'!$G$6</definedName>
+    <definedName name="z_kcl_c">'Salts Data'!$F$6</definedName>
+    <definedName name="z_khcoo_a">'Salts Data'!$G$13</definedName>
+    <definedName name="z_khcoo_c">'Salts Data'!$F$13</definedName>
+    <definedName name="z_mgcl2_a">'Salts Data'!$G$8</definedName>
+    <definedName name="z_mgcl2_c">'Salts Data'!$F$8</definedName>
+    <definedName name="z_nabr_a">'Salts Data'!$G$10</definedName>
+    <definedName name="z_nabr_c">'Salts Data'!$F$10</definedName>
+    <definedName name="z_nacl_a">'Salts Data'!$G$5</definedName>
+    <definedName name="z_nacl_c">'Salts Data'!$F$5</definedName>
+    <definedName name="z_nahcoo_a">'Salts Data'!$G$14</definedName>
+    <definedName name="z_nahcoo_c">'Salts Data'!$F$14</definedName>
+    <definedName name="z_nh4cl_a">'Salts Data'!$G$12</definedName>
+    <definedName name="z_nh4cl_c">'Salts Data'!$F$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
   <si>
     <t>Compound ID</t>
   </si>
@@ -79,16 +103,10 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>C4H10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>H2</t>
@@ -190,24 +208,12 @@
     <t>{1: 2, 2: 1}</t>
   </si>
   <si>
-    <t>{1: 3, 3: 1}</t>
-  </si>
-  <si>
-    <t>{1: 2, 2: 2}</t>
-  </si>
-  <si>
-    <t>{114: 1}</t>
-  </si>
-  <si>
     <t>{115: 1}</t>
   </si>
   <si>
     <t>{117: 1}</t>
   </si>
   <si>
-    <t>{2: 3}</t>
-  </si>
-  <si>
     <t>Structure</t>
   </si>
   <si>
@@ -304,9 +310,6 @@
     <t>Fluid Properties:</t>
   </si>
   <si>
-    <t>NIST Chemistry WebBook, SRD 69</t>
-  </si>
-  <si>
     <t>Tc, Pc, ω:</t>
   </si>
   <si>
@@ -353,6 +356,84 @@
   </si>
   <si>
     <t>Langmuir Parameters:</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>MW (g/mol)</t>
+  </si>
+  <si>
+    <t>Anion Charge</t>
+  </si>
+  <si>
+    <t>Cation Charge</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>CaBr2</t>
+  </si>
+  <si>
+    <t>NaBr</t>
+  </si>
+  <si>
+    <t>KBr</t>
+  </si>
+  <si>
+    <t>NH4Cl</t>
+  </si>
+  <si>
+    <t>KHCOO</t>
+  </si>
+  <si>
+    <t>NaHCOO</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Glycol</t>
+  </si>
+  <si>
+    <t>Monoethylene Glycol</t>
+  </si>
+  <si>
+    <t>Diethylene Glycol</t>
+  </si>
+  <si>
+    <t>Tryethylene Glycol</t>
+  </si>
+  <si>
+    <t>Beta_gas</t>
+  </si>
+  <si>
+    <t>Cation Stoich.</t>
+  </si>
+  <si>
+    <t>Anion Stoich.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +446,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +484,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -461,7 +550,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,11 +585,11 @@
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -791,7 +880,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
@@ -799,19 +888,256 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>32.04</v>
+      </c>
+      <c r="C2">
+        <v>-1.07931</v>
+      </c>
+      <c r="D2">
+        <v>-0.69338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>46.07</v>
+      </c>
+      <c r="C3">
+        <v>-1.02887</v>
+      </c>
+      <c r="D3">
+        <v>-0.14573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>92.09</v>
+      </c>
+      <c r="C4">
+        <v>-0.97430000000000005</v>
+      </c>
+      <c r="D4">
+        <v>-2.0308700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>62.07</v>
+      </c>
+      <c r="C5">
+        <v>-0.99970999999999999</v>
+      </c>
+      <c r="D5">
+        <v>-2.2151399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>106.12</v>
+      </c>
+      <c r="C6">
+        <v>-0.89092000000000005</v>
+      </c>
+      <c r="D6">
+        <v>-5.1304100000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>150.16999999999999</v>
+      </c>
+      <c r="C7">
+        <v>-1.2632300000000001</v>
+      </c>
+      <c r="D7">
+        <v>-5.9443799999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -821,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,20 +1203,20 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
-        <v>647.096</v>
-      </c>
-      <c r="D2" s="12">
-        <v>22.064</v>
+      <c r="C2" s="23">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="D2" s="22">
+        <v>22.09</v>
       </c>
       <c r="E2" s="14">
-        <v>0.34429999999999999</v>
+        <v>0.34379999999999999</v>
       </c>
       <c r="F2" s="16">
         <v>-6.6350000000000006E-2</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>24</v>
+      <c r="H2" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -900,20 +1226,20 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13">
-        <v>190.56399999999999</v>
-      </c>
-      <c r="D3" s="15">
-        <v>4.5991999999999997</v>
-      </c>
-      <c r="E3" s="17">
-        <v>1.142E-2</v>
+      <c r="C3" s="18">
+        <v>190.6</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F3" s="17">
         <v>-1.5900000000000001E-3</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>25</v>
+      <c r="H3" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="10">
         <v>12.61</v>
@@ -929,20 +1255,20 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13">
-        <v>305.322</v>
-      </c>
-      <c r="D4" s="15">
-        <v>4.8722000000000003</v>
-      </c>
-      <c r="E4" s="15">
-        <v>9.9500000000000005E-2</v>
+      <c r="C4" s="18">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4.8840000000000003</v>
+      </c>
+      <c r="E4" s="13">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F4" s="17">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>26</v>
+      <c r="H4" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="10">
         <v>11.56</v>
@@ -958,20 +1284,20 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
-        <v>369.89</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4.2511999999999999</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.15210000000000001</v>
+      <c r="C5" s="18">
+        <v>369.8</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.152</v>
       </c>
       <c r="F5" s="17">
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>27</v>
+      <c r="H5" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="10">
         <v>10.95</v>
@@ -981,206 +1307,90 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11">
-        <v>407.81</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3.629</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="13">
+        <v>28.013000000000002</v>
+      </c>
+      <c r="D6" s="18">
+        <v>126.2</v>
       </c>
       <c r="E6" s="13">
-        <v>0.184</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>28</v>
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="10">
-        <v>10.57</v>
+        <v>15.5808</v>
       </c>
       <c r="J6" s="10">
-        <v>8.14</v>
+        <v>1.7403</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="20">
-        <v>425.125</v>
-      </c>
-      <c r="D7" s="15">
-        <v>3.7959999999999998</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0.20100000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="18">
+        <v>304.2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>7.3760000000000003</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.22500000000000001</v>
       </c>
       <c r="F7" s="17">
-        <v>3.4430000000000002E-2</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>29</v>
+        <v>4.2849999999999999E-2</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I7" s="10">
-        <v>10.53</v>
+        <v>13.773</v>
       </c>
       <c r="J7" s="10">
-        <v>8.1999999999999993</v>
+        <v>2.911</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="18">
-        <v>373.1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.10050000000000001</v>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-0.22</v>
       </c>
       <c r="F8" s="19">
         <v>0</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>30</v>
+      <c r="H8" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="I8" s="10">
-        <v>10.457000000000001</v>
+        <v>10.421900000000001</v>
       </c>
       <c r="J8" s="10">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13">
-        <v>126.19199999999999</v>
-      </c>
-      <c r="D9" s="15">
-        <v>3.3957999999999999</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1.9959999999999999E-2</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="10">
-        <v>15.5808</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1.7403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="15">
-        <v>304.12819999999999</v>
-      </c>
-      <c r="D10" s="15">
-        <v>7.3773</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0.22394</v>
-      </c>
-      <c r="F10" s="17">
-        <v>4.2849999999999999E-2</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="10">
-        <v>13.773</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2.911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13">
-        <v>33.145000000000003</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1.2964</v>
-      </c>
-      <c r="E11" s="13">
-        <v>-0.219</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="10">
-        <v>10.421900000000001</v>
-      </c>
-      <c r="J11" s="10">
         <v>0.80230000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="18">
-        <v>398.3</v>
-      </c>
-      <c r="D12" s="15">
-        <v>5.5796999999999999</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.1305</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="10">
-        <v>9.86</v>
-      </c>
-      <c r="J12" s="10">
-        <v>5.66</v>
       </c>
     </row>
   </sheetData>
@@ -1209,42 +1419,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -1255,7 +1465,7 @@
       <c r="D2" s="12">
         <v>6.593</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>8.0559999999999992</v>
       </c>
       <c r="F2" s="10">
@@ -1279,7 +1489,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>51262</v>
@@ -1314,7 +1524,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>512</v>
@@ -1349,7 +1559,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>51264</v>
@@ -1392,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,9 +1619,9 @@
     <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1420,21 +1630,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1454,10 +1667,13 @@
       <c r="G2" s="10">
         <v>-8.332061E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <v>9.1195999999999996E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1477,10 +1693,13 @@
       <c r="G3" s="10">
         <v>-9.7740029999999999E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="6">
+        <v>8.1649999999999995E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1501,395 +1720,217 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4.7156616649999998</v>
       </c>
       <c r="E5" s="10">
-        <v>-5257.8271619999996</v>
+        <v>-5373.2695059999996</v>
       </c>
       <c r="F5" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G5" s="10">
-        <v>-6.9790920000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9.5060219999999994E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4.5907107290000004</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-5345.2829309999997</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-7.522178E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>9.1859999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="10">
-        <v>4.6445600000000002</v>
+        <v>4.0645302499999998</v>
       </c>
       <c r="E7" s="10">
-        <v>-5150.369001</v>
+        <v>-5869.3912110000001</v>
       </c>
       <c r="F7" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G7" s="10">
-        <v>-8.7553200000000005E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-8.4241990000000003E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D8" s="10">
-        <v>4.7156616649999998</v>
+        <v>4.6089299959999996</v>
       </c>
       <c r="E8" s="10">
-        <v>-5373.2695059999996</v>
+        <v>-5397.8454819999997</v>
       </c>
       <c r="F8" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G8" s="10">
-        <v>-9.5060219999999994E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-7.7759170000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="10">
-        <v>4.5907107290000004</v>
+        <v>4.7125573630000002</v>
       </c>
       <c r="E9" s="10">
-        <v>-5345.2829309999997</v>
+        <v>-5464.49251</v>
       </c>
       <c r="F9" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G9" s="10">
-        <v>-7.522178E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9.2994059999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="10">
-        <v>4.0645302499999998</v>
+        <v>4.707955084</v>
       </c>
       <c r="E10" s="10">
-        <v>-5869.3912110000001</v>
+        <v>-5449.8886869999997</v>
       </c>
       <c r="F10" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G10" s="10">
-        <v>-8.4241990000000003E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9.2329720000000007E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.0582E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="10">
-        <v>4.6651632039999997</v>
+        <v>4.6900941600000001</v>
       </c>
       <c r="E11" s="10">
-        <v>-5424.1075559999999</v>
+        <v>-5354.3807349999997</v>
       </c>
       <c r="F11" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G11" s="10">
-        <v>-8.8658250000000008E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9.3455150000000004E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D12" s="10">
-        <v>4.6089299959999996</v>
+        <v>4.8422184430000001</v>
       </c>
       <c r="E12" s="10">
-        <v>-5397.8454819999997</v>
+        <v>-5621.0812020000003</v>
       </c>
       <c r="F12" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G12" s="10">
-        <v>-7.7759170000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-9.1986499999999992E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10">
-        <v>4.7125573630000002</v>
+        <v>4.6973549649999997</v>
       </c>
       <c r="E13" s="10">
-        <v>-5464.49251</v>
+        <v>-5458.1544480000002</v>
       </c>
       <c r="F13" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G13" s="10">
-        <v>-9.2994059999999996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4.707955084</v>
-      </c>
-      <c r="E14" s="10">
-        <v>-5449.8886869999997</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-9.2329720000000007E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4.6818019250000003</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-5455.2664329999998</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-8.9678120000000004E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7">
-        <v>7</v>
-      </c>
-      <c r="E17" s="10">
-        <v>-5647.5575849999996</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-1.400565E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10">
-        <v>4.6900941600000001</v>
-      </c>
-      <c r="E18" s="10">
-        <v>-5354.3807349999997</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-9.3455150000000004E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4.8422184430000001</v>
-      </c>
-      <c r="E19" s="10">
-        <v>-5621.0812020000003</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-9.1986499999999992E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="6">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="10">
-        <v>4.6973549649999997</v>
-      </c>
-      <c r="E20" s="10">
-        <v>-5458.1544480000002</v>
-      </c>
-      <c r="F20" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G20" s="10">
         <v>-9.23502E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="6">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="10">
-        <v>5.1449309960000003</v>
-      </c>
-      <c r="E21" s="10">
-        <v>-5544.3271889999996</v>
-      </c>
-      <c r="F21" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-1.4844622E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1900,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,9 +1956,9 @@
     <col min="10" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -1946,8 +1987,11 @@
       <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1978,8 +2022,11 @@
       <c r="J2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2010,8 +2057,11 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2042,8 +2092,11 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2074,8 +2127,11 @@
       <c r="J5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2106,8 +2162,11 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2138,8 +2197,11 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -2170,8 +2232,11 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2202,8 +2267,11 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -2232,6 +2300,44 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2247,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,16 +2373,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,19 +2450,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>190.982</v>
+        <v>-327.85</v>
       </c>
       <c r="D5" s="10">
-        <v>-4913</v>
+        <v>16757.599999999999</v>
       </c>
       <c r="E5" s="10">
-        <v>-34.510199999999998</v>
+        <v>42.84</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1.677E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2364,119 +2470,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10">
-        <v>-639.20899999999995</v>
+        <v>-317.65800000000002</v>
       </c>
       <c r="D6" s="10">
-        <v>32785.699999999997</v>
+        <v>17371.2</v>
       </c>
       <c r="E6" s="10">
-        <v>89.148300000000006</v>
+        <v>43.060699999999997</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>-2.1900000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="10">
-        <v>-297.15800000000002</v>
+        <v>-172.5809313</v>
       </c>
       <c r="D7" s="10">
-        <v>16347.7</v>
+        <v>8303.1099190000004</v>
       </c>
       <c r="E7" s="10">
-        <v>40.202399999999997</v>
+        <v>20.85057355</v>
       </c>
       <c r="F7" s="10">
-        <v>2.5699999999999998E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-327.85</v>
-      </c>
-      <c r="D8" s="10">
-        <v>16757.599999999999</v>
-      </c>
-      <c r="E8" s="10">
-        <v>42.84</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1.677E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-317.65800000000002</v>
-      </c>
-      <c r="D9" s="10">
-        <v>17371.2</v>
-      </c>
-      <c r="E9" s="10">
-        <v>43.060699999999997</v>
-      </c>
-      <c r="F9" s="10">
-        <v>-2.1900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-172.5809313</v>
-      </c>
-      <c r="D10" s="10">
-        <v>8303.1099190000004</v>
-      </c>
-      <c r="E10" s="10">
-        <v>20.85057355</v>
-      </c>
-      <c r="F10" s="10">
         <v>1.2565979E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-121.056</v>
-      </c>
-      <c r="D11" s="10">
-        <v>18235.759999999998</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.14460400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2493,11 +2519,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE349D4-1129-4225-BFFF-FB3589E12B53}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -2508,24 +2534,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2542,7 +2568,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2559,7 +2585,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -2576,7 +2602,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -2593,7 +2619,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2610,7 +2636,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -2627,7 +2653,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -2644,7 +2670,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -2661,7 +2687,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -2678,7 +2704,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2695,7 +2721,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2712,7 +2738,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2729,7 +2755,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -2746,7 +2772,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2763,7 +2789,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2780,7 +2806,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2797,7 +2823,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2814,7 +2840,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2831,7 +2857,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2848,7 +2874,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -2865,7 +2891,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -2882,7 +2908,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -2899,7 +2925,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -2916,7 +2942,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -2933,7 +2959,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2950,7 +2976,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2967,7 +2993,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2984,7 +3010,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -3001,7 +3027,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -3018,7 +3044,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3035,7 +3061,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3052,7 +3078,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3074,13 +3100,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -3093,27 +3119,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3133,7 +3159,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3153,7 +3179,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -3173,7 +3199,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3182,10 +3208,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-100</v>
+        <v>-23.064578959999999</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2475.867338</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3193,7 +3219,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3202,18 +3228,18 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>-100</v>
+        <v>-24.982430879999999</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2743.7375419999998</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>31948.649580000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -3222,30 +3248,30 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-100</v>
+        <v>-21.622831640000001</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1020.235617</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-6733.3428519999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>-23.064578959999999</v>
+        <v>-22.06505254</v>
       </c>
       <c r="E8">
-        <v>2475.867338</v>
+        <v>2760.1604400000001</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3253,59 +3279,59 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>-24.982430879999999</v>
+        <v>-23.728977069999999</v>
       </c>
       <c r="E9">
-        <v>2743.7375419999998</v>
+        <v>3843.277306</v>
       </c>
       <c r="F9">
-        <v>31948.649580000001</v>
+        <v>8882.4254299999993</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>-21.622831640000001</v>
+        <v>-100</v>
       </c>
       <c r="E10">
-        <v>1020.235617</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-6733.3428519999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>-100</v>
+        <v>-21.842441359999999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2337.176449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3313,19 +3339,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>-22.06505254</v>
+        <v>-22.403651719999999</v>
       </c>
       <c r="E12">
-        <v>2760.1604400000001</v>
+        <v>3171.7603869999998</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3333,39 +3359,39 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>-23.728977069999999</v>
+        <v>-20.294193369999999</v>
       </c>
       <c r="E13">
-        <v>3843.277306</v>
+        <v>966.94308220000005</v>
       </c>
       <c r="F13">
-        <v>8882.4254299999993</v>
+        <v>-11765.039220000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>-100</v>
+        <v>-23.574602980000002</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2708.8070149999999</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3373,33 +3399,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>-100</v>
+        <v>-24.837826750000001</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>926.98965250000003</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>43614.852559999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>-100</v>
@@ -3413,19 +3439,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>-100</v>
+        <v>-22.97258845</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2499.2232410000001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3433,482 +3459,162 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>-21.842441359999999</v>
+        <v>-25.175152000000001</v>
       </c>
       <c r="E18">
-        <v>2337.176449</v>
+        <v>3089.4741450000001</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>48259.677799999998</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>-22.403651719999999</v>
+        <v>-21.61219251</v>
       </c>
       <c r="E19">
-        <v>3171.7603869999998</v>
+        <v>1018.415603</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-7082.4989839999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-20.294193369999999</v>
+        <v>-20.699072309999998</v>
       </c>
       <c r="E20">
-        <v>966.94308220000005</v>
+        <v>2147.68986</v>
       </c>
       <c r="F20">
-        <v>-11765.039220000001</v>
+        <v>-12013.621069999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>-100</v>
+        <v>-22.229064659999999</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3534.8896070000001</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-3371.30006</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-23.574602980000002</v>
+        <v>-23.130704890000001</v>
       </c>
       <c r="E22">
-        <v>2708.8070149999999</v>
+        <v>4176.1978810000001</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>45939.459300000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>-24.837826750000001</v>
+        <v>-20.615956090000001</v>
       </c>
       <c r="E23">
-        <v>926.98965250000003</v>
+        <v>2033.604317</v>
       </c>
       <c r="F23">
-        <v>43614.852559999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>-100</v>
+        <v>-21.091724119999999</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2405.3661569999999</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>28783</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>-100</v>
+        <v>-19.686499999999999</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>870.05240000000003</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>-100</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>-100</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>-22.97258845</v>
-      </c>
-      <c r="E28">
-        <v>2499.2232410000001</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>-25.175152000000001</v>
-      </c>
-      <c r="E29">
-        <v>3089.4741450000001</v>
-      </c>
-      <c r="F29">
-        <v>48259.677799999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>-21.61219251</v>
-      </c>
-      <c r="E30">
-        <v>1018.415603</v>
-      </c>
-      <c r="F30">
-        <v>-7082.4989839999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>-100</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>-20.699072309999998</v>
-      </c>
-      <c r="E32">
-        <v>2147.68986</v>
-      </c>
-      <c r="F32">
-        <v>-12013.621069999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>-22.229064659999999</v>
-      </c>
-      <c r="E33">
-        <v>3534.8896070000001</v>
-      </c>
-      <c r="F33">
-        <v>-3371.30006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>-23.130704890000001</v>
-      </c>
-      <c r="E34">
-        <v>4176.1978810000001</v>
-      </c>
-      <c r="F34">
-        <v>45939.459300000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>-100</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>-100</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>-100</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>-20.615956090000001</v>
-      </c>
-      <c r="E38">
-        <v>2033.604317</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>8</v>
-      </c>
-      <c r="D39">
-        <v>-21.091724119999999</v>
-      </c>
-      <c r="E39">
-        <v>2405.3661569999999</v>
-      </c>
-      <c r="F39">
-        <v>28783</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>-19.686499999999999</v>
-      </c>
-      <c r="E40">
-        <v>870.05240000000003</v>
-      </c>
-      <c r="F40">
         <v>-14208.0553</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>-100</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3917,118 +3623,241 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>58.44</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>74.55</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>110.98</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>95.210999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>199.89</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>102.89400000000001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>119.002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>53.491</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>84.114999999999995</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0423F-F557-4516-BD8A-038DCF845807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1154AF-A75E-447D-98E4-BB0B85E2C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
   <si>
     <t>Compound ID</t>
   </si>
@@ -86,15 +86,6 @@
   </si>
   <si>
     <t>C3H8</t>
-  </si>
-  <si>
-    <t>i-C4H10</t>
-  </si>
-  <si>
-    <t>c-C3H6</t>
-  </si>
-  <si>
-    <t>H2S</t>
   </si>
   <si>
     <t>N2</t>
@@ -184,9 +175,6 @@
     </r>
   </si>
   <si>
-    <t>Unused</t>
-  </si>
-  <si>
     <t>Chemgroup</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>Diethylene Glycol</t>
   </si>
   <si>
-    <t>Tryethylene Glycol</t>
-  </si>
-  <si>
     <t>Beta_gas</t>
   </si>
   <si>
@@ -434,6 +419,27 @@
   </si>
   <si>
     <t>Anion Stoich.</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>Triethylene Glycol</t>
+  </si>
+  <si>
+    <t>Salts Data:</t>
+  </si>
+  <si>
+    <t>Inhibitor Data:</t>
+  </si>
+  <si>
+    <t>Kf:</t>
+  </si>
+  <si>
+    <t>Microsoft Copilot</t>
+  </si>
+  <si>
+    <t>betaGas</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +596,7 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -888,19 +895,19 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -910,10 +917,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,23 +929,26 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>32.04</v>
@@ -949,10 +959,13 @@
       <c r="D2">
         <v>-0.69338</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>-1.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>46.07</v>
@@ -963,10 +976,13 @@
       <c r="D3">
         <v>-0.14573</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>92.09</v>
@@ -977,10 +993,13 @@
       <c r="D4">
         <v>-2.0308700000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>62.07</v>
@@ -991,10 +1010,13 @@
       <c r="D5">
         <v>-2.2151399999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>106.12</v>
@@ -1005,8 +1027,11 @@
       <c r="D6">
         <v>-5.1304100000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1018,6 +1043,9 @@
       </c>
       <c r="D7">
         <v>-5.9443799999999998</v>
+      </c>
+      <c r="E7">
+        <v>-2.2599999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,104 +1068,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>72</v>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1204,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1214,7 @@
     <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1172,28 +1226,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,7 +1270,7 @@
         <v>-6.6350000000000006E-2</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,8 +1292,9 @@
       <c r="F3" s="17">
         <v>-1.5900000000000001E-3</v>
       </c>
+      <c r="G3" s="25"/>
       <c r="H3" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I3" s="10">
         <v>12.61</v>
@@ -1267,8 +1322,9 @@
       <c r="F4" s="17">
         <v>2.6689999999999998E-2</v>
       </c>
+      <c r="G4" s="25"/>
       <c r="H4" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" s="10">
         <v>11.56</v>
@@ -1296,8 +1352,9 @@
       <c r="F5" s="17">
         <v>3.1359999999999999E-2</v>
       </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="10">
         <v>10.95</v>
@@ -1308,25 +1365,26 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13">
-        <v>28.013000000000002</v>
-      </c>
-      <c r="D6" s="18">
-        <v>126.2</v>
-      </c>
-      <c r="E6" s="13">
-        <v>3.3940000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="18">
+        <v>126.19199999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3.3957999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="F6" s="15">
         <v>1.9959999999999999E-2</v>
       </c>
+      <c r="G6" s="25"/>
       <c r="H6" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I6" s="10">
         <v>15.5808</v>
@@ -1337,10 +1395,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="18">
         <v>304.2</v>
@@ -1354,8 +1412,9 @@
       <c r="F7" s="17">
         <v>4.2849999999999999E-2</v>
       </c>
+      <c r="G7" s="25"/>
       <c r="H7" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I7" s="10">
         <v>13.773</v>
@@ -1366,10 +1425,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="18">
         <v>33.200000000000003</v>
@@ -1384,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I8" s="10">
         <v>10.421900000000001</v>
@@ -1419,42 +1478,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -1489,7 +1548,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>51262</v>
@@ -1524,7 +1583,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>512</v>
@@ -1559,7 +1618,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>51264</v>
@@ -1621,33 +1680,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1673,7 +1732,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1699,7 +1758,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1722,13 +1781,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="10">
         <v>4.7156616649999998</v>
@@ -1745,13 +1804,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="10">
         <v>4.5907107290000004</v>
@@ -1771,13 +1830,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="10">
         <v>4.0645302499999998</v>
@@ -1794,7 +1853,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1817,7 +1876,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="6">
         <v>2</v>
@@ -1840,7 +1899,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
@@ -1866,13 +1925,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10">
         <v>4.6900941600000001</v>
@@ -1889,13 +1948,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="10">
         <v>4.8422184430000001</v>
@@ -1912,13 +1971,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10">
         <v>4.6973549649999997</v>
@@ -1941,24 +2000,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="6.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="6.140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.85546875" style="6"/>
+    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="6.140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -1967,31 +2025,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2002,31 +2051,22 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D2" s="6">
-        <v>3.3000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E2" s="6">
-        <v>1.6E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F2" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="6">
         <v>0.09</v>
       </c>
-      <c r="I2" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2037,307 +2077,148 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>8.8999999999999996E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E3" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="D5" s="6">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.13</v>
       </c>
-      <c r="I3" s="6">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="D6" s="6">
         <v>0.12</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>-1.4E-2</v>
-      </c>
       <c r="E6" s="6">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="I6" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>-0.02</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.13</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-0.02</v>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="H9" s="6">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2356,7 +2237,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,16 +2254,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2450,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>-327.85</v>
@@ -2470,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10">
         <v>-317.65800000000002</v>
@@ -2490,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>-172.5809313</v>
@@ -2534,24 +2415,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2568,7 +2449,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2585,7 +2466,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -2602,7 +2483,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -2619,7 +2500,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2636,7 +2517,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -2653,7 +2534,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -2670,7 +2551,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -2687,7 +2568,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -2704,7 +2585,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2721,7 +2602,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2738,7 +2619,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2755,7 +2636,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -2772,7 +2653,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2789,7 +2670,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2806,7 +2687,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2823,7 +2704,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2840,7 +2721,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2857,7 +2738,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2874,7 +2755,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -2891,7 +2772,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -2908,7 +2789,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -2925,7 +2806,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -2942,7 +2823,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -2959,7 +2840,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2976,7 +2857,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2993,7 +2874,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -3010,7 +2891,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -3027,7 +2908,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -3044,7 +2925,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -3061,7 +2942,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3078,7 +2959,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3102,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,27 +3000,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3159,7 +3040,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3179,7 +3060,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -3199,7 +3080,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3219,7 +3100,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3239,7 +3120,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -3259,7 +3140,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -3279,7 +3160,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -3299,7 +3180,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -3319,7 +3200,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -3339,7 +3220,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -3359,7 +3240,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -3379,7 +3260,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -3399,7 +3280,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -3419,7 +3300,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -3439,7 +3320,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -3459,7 +3340,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -3479,7 +3360,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -3499,7 +3380,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -3519,7 +3400,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -3539,7 +3420,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -3559,7 +3440,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -3579,7 +3460,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -3599,7 +3480,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -3607,14 +3488,14 @@
       <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>-19.686499999999999</v>
-      </c>
-      <c r="E25">
-        <v>870.05240000000003</v>
-      </c>
-      <c r="F25">
-        <v>-14208.0553</v>
+      <c r="D25" s="7">
+        <v>-17.043085165705602</v>
+      </c>
+      <c r="E25" s="7">
+        <v>800.84719395085494</v>
+      </c>
+      <c r="F25" s="7">
+        <v>534627.75046187395</v>
       </c>
     </row>
   </sheetData>
@@ -3624,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3640,29 +3521,32 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
       </c>
       <c r="B2">
         <v>58.44</v>
@@ -3679,10 +3563,13 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>74.55</v>
@@ -3699,10 +3586,13 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>110.98</v>
@@ -3719,10 +3609,13 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>95.210999999999999</v>
@@ -3739,10 +3632,13 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>199.89</v>
@@ -3759,10 +3655,13 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>102.89400000000001</v>
@@ -3779,10 +3678,13 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>119.002</v>
@@ -3799,10 +3701,13 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>-3.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>53.491</v>
@@ -3819,10 +3724,13 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>84.114999999999995</v>
@@ -3839,10 +3747,13 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>68.010000000000005</v>
@@ -3858,6 +3769,9 @@
       </c>
       <c r="F11">
         <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1154AF-A75E-447D-98E4-BB0B85E2C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CB1AE-55EA-412A-ADB6-09492DFA51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
   <si>
     <t>Compound ID</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>H2</t>
@@ -310,9 +307,6 @@
     <t xml:space="preserve">PRSV: An Improved Peng- Robinson Equation of State for Pure Compounds and Mixtures R. STRYJEK* and J. H. VERA </t>
   </si>
   <si>
-    <t>{113: 1}</t>
-  </si>
-  <si>
     <t>Chemgroups:</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>Diethylene Glycol</t>
   </si>
   <si>
-    <t>Beta_gas</t>
-  </si>
-  <si>
     <t>Cation Stoich.</t>
   </si>
   <si>
@@ -439,7 +430,22 @@
     <t>Microsoft Copilot</t>
   </si>
   <si>
-    <t>betaGas</t>
+    <t>c-C3H6</t>
+  </si>
+  <si>
+    <t>i-C4H10</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>0.0885</t>
+  </si>
+  <si>
+    <t>{1: 3, 3: 1}</t>
+  </si>
+  <si>
+    <t>unused</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,14 +496,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -556,7 +554,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,14 +586,10 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -887,27 +881,27 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -920,35 +914,35 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>89</v>
       </c>
       <c r="B2">
         <v>32.04</v>
@@ -963,9 +957,9 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>46.07</v>
@@ -980,9 +974,9 @@
         <v>-1.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>92.09</v>
@@ -997,9 +991,9 @@
         <v>-3.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>62.07</v>
@@ -1014,9 +1008,9 @@
         <v>-3.11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>106.12</v>
@@ -1031,9 +1025,9 @@
         <v>-2.2599999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>150.16999999999999</v>
@@ -1061,137 +1055,137 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
       <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1203,22 +1197,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,41 +1220,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>647.29999999999995</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>22.09</v>
       </c>
       <c r="E2" s="14">
@@ -1269,11 +1263,11 @@
       <c r="F2" s="16">
         <v>-6.6350000000000006E-2</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1292,9 +1286,9 @@
       <c r="F3" s="17">
         <v>-1.5900000000000001E-3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="20" t="s">
-        <v>19</v>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I3" s="10">
         <v>12.61</v>
@@ -1303,7 +1297,7 @@
         <v>2.593</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1322,9 +1316,9 @@
       <c r="F4" s="17">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="20" t="s">
-        <v>20</v>
+      <c r="G4" s="23"/>
+      <c r="H4" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="10">
         <v>11.56</v>
@@ -1333,7 +1327,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1352,9 +1346,9 @@
       <c r="F5" s="17">
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="20" t="s">
-        <v>21</v>
+      <c r="G5" s="23"/>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="I5" s="10">
         <v>10.95</v>
@@ -1363,9 +1357,9 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1382,9 +1376,9 @@
       <c r="F6" s="15">
         <v>1.9959999999999999E-2</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="20" t="s">
-        <v>22</v>
+      <c r="G6" s="23"/>
+      <c r="H6" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="10">
         <v>15.5808</v>
@@ -1393,7 +1387,7 @@
         <v>1.7403</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1412,9 +1406,9 @@
       <c r="F7" s="17">
         <v>4.2849999999999999E-2</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20" t="s">
-        <v>23</v>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="I7" s="10">
         <v>13.773</v>
@@ -1423,33 +1417,34 @@
         <v>2.911</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C8" s="18">
-        <v>33.200000000000003</v>
+        <v>407.81</v>
       </c>
       <c r="D8" s="13">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-0.22</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>60</v>
+        <v>3.629</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.184</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="I8" s="10">
-        <v>10.421900000000001</v>
+        <v>10.57</v>
       </c>
       <c r="J8" s="10">
-        <v>0.80230000000000001</v>
+        <v>8.14</v>
       </c>
     </row>
   </sheetData>
@@ -1465,55 +1460,55 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>512</v>
@@ -1524,7 +1519,7 @@
       <c r="D2" s="12">
         <v>6.593</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>8.0559999999999992</v>
       </c>
       <c r="F2" s="10">
@@ -1546,9 +1541,9 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>51262</v>
@@ -1581,9 +1576,9 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>512</v>
@@ -1616,9 +1611,9 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>51264</v>
@@ -1651,7 +1646,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -1661,52 +1656,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="6"/>
+    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1726,13 +1718,10 @@
       <c r="G2" s="10">
         <v>-8.332061E-3</v>
       </c>
-      <c r="H2" s="6">
-        <v>9.1195999999999996E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1752,13 +1741,10 @@
       <c r="G3" s="10">
         <v>-9.7740029999999999E-3</v>
       </c>
-      <c r="H3" s="6">
-        <v>8.1649999999999995E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1779,9 +1765,9 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1802,9 +1788,9 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -1824,172 +1810,143 @@
       <c r="G6" s="10">
         <v>-7.522178E-3</v>
       </c>
-      <c r="H6" s="6">
-        <v>9.1859999999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="10">
-        <v>4.0645302499999998</v>
+        <v>4.6089299959999996</v>
       </c>
       <c r="E7" s="10">
-        <v>-5869.3912110000001</v>
+        <v>-5397.8454819999997</v>
       </c>
       <c r="F7" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G7" s="10">
-        <v>-8.4241990000000003E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-7.7759170000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10">
-        <v>4.6089299959999996</v>
+        <v>4.7125573630000002</v>
       </c>
       <c r="E8" s="10">
-        <v>-5397.8454819999997</v>
+        <v>-5464.49251</v>
       </c>
       <c r="F8" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G8" s="10">
-        <v>-7.7759170000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.2994059999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="10">
-        <v>4.7125573630000002</v>
+        <v>4.707955084</v>
       </c>
       <c r="E9" s="10">
-        <v>-5464.49251</v>
+        <v>-5449.8886869999997</v>
       </c>
       <c r="F9" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G9" s="10">
-        <v>-9.2994059999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.2329720000000007E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="10">
-        <v>4.707955084</v>
+        <v>4.6900941600000001</v>
       </c>
       <c r="E10" s="10">
-        <v>-5449.8886869999997</v>
+        <v>-5354.3807349999997</v>
       </c>
       <c r="F10" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G10" s="10">
-        <v>-9.2329720000000007E-3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1.0582E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.3455150000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="10">
-        <v>4.6900941600000001</v>
+        <v>4.8422184430000001</v>
       </c>
       <c r="E11" s="10">
-        <v>-5354.3807349999997</v>
+        <v>-5621.0812020000003</v>
       </c>
       <c r="F11" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G11" s="10">
-        <v>-9.3455150000000004E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-9.1986499999999992E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
       </c>
       <c r="D12" s="10">
-        <v>4.8422184430000001</v>
+        <v>4.6818</v>
       </c>
       <c r="E12" s="10">
-        <v>-5621.0812020000003</v>
+        <v>-5455.2664000000004</v>
       </c>
       <c r="F12" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G12" s="10">
-        <v>-9.1986499999999992E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>4.6973549649999997</v>
-      </c>
-      <c r="E13" s="10">
-        <v>-5458.1544480000002</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-9.23502E-3</v>
+        <v>-8.9677999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2000,23 +1957,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="11.85546875" style="6"/>
+    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -2025,22 +1985,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2051,22 +2017,28 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D2" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E2" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.03</v>
       </c>
-      <c r="F2" s="6">
+      <c r="H2" s="6">
         <v>0.09</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2077,148 +2049,248 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E3" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G3" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="H3" s="6">
         <v>0.13</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D5" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H5" s="6">
         <v>0.12</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="I5" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B7" s="6">
         <v>0.03</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D7" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <v>-0.02</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="I7" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B8" s="6">
         <v>0.09</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <v>0.13</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D8" s="6">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F8" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G8" s="6">
         <v>-0.02</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2237,16 +2309,16 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="6"/>
+    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2254,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2286,7 +2358,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2306,7 +2378,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2326,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2346,7 +2418,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2366,24 +2438,24 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="10">
-        <v>-172.5809313</v>
+        <v>190.982</v>
       </c>
       <c r="D7" s="10">
-        <v>8303.1099190000004</v>
+        <v>-4913</v>
       </c>
       <c r="E7" s="10">
-        <v>20.85057355</v>
+        <v>-34.510199999999998</v>
       </c>
       <c r="F7" s="10">
-        <v>1.2565979E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2404,35 +2476,35 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2447,9 +2519,9 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2464,9 +2536,9 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -2481,9 +2553,9 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -2498,9 +2570,9 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -2515,9 +2587,9 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -2532,9 +2604,9 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -2549,9 +2621,9 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -2566,9 +2638,9 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -2583,9 +2655,9 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -2600,9 +2672,9 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -2617,9 +2689,9 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2634,9 +2706,9 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -2651,9 +2723,9 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2668,9 +2740,9 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -2685,9 +2757,9 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2702,9 +2774,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2719,9 +2791,9 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2736,9 +2808,9 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2753,9 +2825,9 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -2770,9 +2842,9 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -2787,9 +2859,9 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -2804,9 +2876,9 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -2821,9 +2893,9 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -2838,9 +2910,9 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -2855,9 +2927,9 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2872,9 +2944,9 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2889,9 +2961,9 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2906,9 +2978,9 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -2923,9 +2995,9 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
@@ -2940,9 +3012,9 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -2957,9 +3029,9 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -2983,44 +3055,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3038,9 +3110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3058,9 +3130,9 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -3078,9 +3150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3098,9 +3170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3118,9 +3190,9 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -3129,18 +3201,18 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-21.622831640000001</v>
+        <v>-100</v>
       </c>
       <c r="E7">
-        <v>1020.235617</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-6733.3428519999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -3158,9 +3230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -3178,9 +3250,9 @@
         <v>8882.4254299999993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -3198,9 +3270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -3218,9 +3290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -3238,9 +3310,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -3249,18 +3321,18 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>-20.294193369999999</v>
+        <v>-100</v>
       </c>
       <c r="E13">
-        <v>966.94308220000005</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-11765.039220000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -3278,9 +3350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -3298,9 +3370,9 @@
         <v>43614.852559999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -3318,9 +3390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -3338,9 +3410,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -3358,9 +3430,9 @@
         <v>48259.677799999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -3369,18 +3441,18 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>-21.61219251</v>
+        <v>-100</v>
       </c>
       <c r="E19">
-        <v>1018.415603</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-7082.4989839999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -3398,9 +3470,9 @@
         <v>-12013.621069999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -3418,9 +3490,9 @@
         <v>-3371.30006</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -3429,18 +3501,18 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>-23.130704890000001</v>
+        <v>-23.130700000000001</v>
       </c>
       <c r="E22">
-        <v>4176.1978810000001</v>
+        <v>4176.1979000000001</v>
       </c>
       <c r="F22">
         <v>45939.459300000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -3458,9 +3530,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -3478,9 +3550,9 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -3488,14 +3560,14 @@
       <c r="C25" s="6">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
-        <v>-17.043085165705602</v>
-      </c>
-      <c r="E25" s="7">
-        <v>800.84719395085494</v>
-      </c>
-      <c r="F25" s="7">
-        <v>534627.75046187395</v>
+      <c r="D25" s="6">
+        <v>-41.589308423376103</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12568.4056539184</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-984700.06756650598</v>
       </c>
     </row>
   </sheetData>
@@ -3511,42 +3583,42 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
       </c>
       <c r="B2">
         <v>58.44</v>
@@ -3567,9 +3639,9 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>74.55</v>
@@ -3590,9 +3662,9 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>110.98</v>
@@ -3613,9 +3685,9 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>95.210999999999999</v>
@@ -3636,9 +3708,9 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>199.89</v>
@@ -3659,9 +3731,9 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>102.89400000000001</v>
@@ -3682,9 +3754,9 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>119.002</v>
@@ -3705,9 +3777,9 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>53.491</v>
@@ -3728,9 +3800,9 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>84.114999999999995</v>
@@ -3751,9 +3823,9 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>68.010000000000005</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CB1AE-55EA-412A-ADB6-09492DFA51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313480E-DEAF-4DD8-82F3-7EF34ACD0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
   <si>
     <t>Compound ID</t>
   </si>
@@ -445,7 +445,37 @@
     <t>{1: 3, 3: 1}</t>
   </si>
   <si>
-    <t>unused</t>
+    <t>C5H12</t>
+  </si>
+  <si>
+    <t>Binary Interaction Parameters:</t>
+  </si>
+  <si>
+    <t>Knapp, H, Zeck, S, and Langhorst, R. Vapor-liquid equilibria for mixtures of low boiling substances. Pt. 2. Ternary systems. Germany: N. p., 1989. Web.</t>
+  </si>
+  <si>
+    <t>{1: 2, 2: 3}</t>
+  </si>
+  <si>
+    <t>Cells Highlighted in Blue are Generated by this Study</t>
+  </si>
+  <si>
+    <t>C6H14</t>
+  </si>
+  <si>
+    <t>{1: 2, 2: 4}</t>
+  </si>
+  <si>
+    <t>All Data Except C5 &amp; C6:</t>
+  </si>
+  <si>
+    <t>C5 &amp; C6:</t>
+  </si>
+  <si>
+    <t>Max Conc.</t>
+  </si>
+  <si>
+    <t>guessConst</t>
   </si>
 </sst>
 </file>
@@ -458,7 +488,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,8 +532,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +574,11 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -547,14 +589,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,9 +633,11 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -875,33 +920,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867AA470-DEF8-4F08-8D0E-BBB082A9AA7D}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -911,19 +962,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -939,8 +991,11 @@
       <c r="E1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -956,8 +1011,11 @@
       <c r="E2">
         <v>-1.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -973,8 +1031,11 @@
       <c r="E3">
         <v>-1.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -990,8 +1051,11 @@
       <c r="E4">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1007,8 +1071,11 @@
       <c r="E5">
         <v>-3.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1024,8 +1091,11 @@
       <c r="E6">
         <v>-2.2599999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1040,6 +1110,9 @@
       </c>
       <c r="E7">
         <v>-2.2599999999999998</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1049,23 +1122,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1073,7 +1146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1081,7 +1154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1089,7 +1162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1097,12 +1170,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1110,12 +1183,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1123,68 +1196,89 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>98</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1195,24 +1289,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -1244,7 +1338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1267,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1286,7 +1380,9 @@
       <c r="F3" s="17">
         <v>-1.5900000000000001E-3</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24">
+        <v>0.06</v>
+      </c>
       <c r="H3" s="19" t="s">
         <v>18</v>
       </c>
@@ -1297,7 +1393,7 @@
         <v>2.593</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1316,7 +1412,9 @@
       <c r="F4" s="17">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="23">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +1425,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1346,7 +1444,9 @@
       <c r="F5" s="17">
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="23">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
@@ -1357,7 +1457,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1376,7 +1476,9 @@
       <c r="F6" s="15">
         <v>1.9959999999999999E-2</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="23">
+        <v>6.3E-2</v>
+      </c>
       <c r="H6" s="19" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1489,7 @@
         <v>1.7403</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1508,9 @@
       <c r="F7" s="17">
         <v>4.2849999999999999E-2</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="23">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1521,7 @@
         <v>2.911</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1436,7 +1540,9 @@
       <c r="F8" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="23">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="H8" s="19" t="s">
         <v>104</v>
       </c>
@@ -1445,6 +1551,70 @@
       </c>
       <c r="J8" s="10">
         <v>8.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18">
+        <v>469.8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.251</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3.9460000000000002E-2</v>
+      </c>
+      <c r="G9" s="23">
+        <v>100</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="18">
+        <v>507.6</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>5.1040000000000002E-2</v>
+      </c>
+      <c r="G10" s="23">
+        <v>100</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1460,18 +1630,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1711,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1746,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1611,7 +1781,7 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1816,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -1656,24 +1826,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="6"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1889,7 @@
         <v>-8.332061E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1742,7 +1912,7 @@
         <v>-9.7740029999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1935,7 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1788,7 +1958,7 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1811,141 +1981,187 @@
         <v>-7.522178E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4.6089299959999996</v>
-      </c>
-      <c r="E7" s="10">
-        <v>-5397.8454819999997</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-7.7759170000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4.7125573630000002</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-5464.49251</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-9.2994059999999996E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D9" s="10">
-        <v>4.707955084</v>
+        <v>4.6089299959999996</v>
       </c>
       <c r="E9" s="10">
-        <v>-5449.8886869999997</v>
+        <v>-5397.8454819999997</v>
       </c>
       <c r="F9" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G9" s="10">
-        <v>-9.2329720000000007E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-7.7759170000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" s="10">
-        <v>4.6900941600000001</v>
+        <v>4.7125573630000002</v>
       </c>
       <c r="E10" s="10">
-        <v>-5354.3807349999997</v>
+        <v>-5464.49251</v>
       </c>
       <c r="F10" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G10" s="10">
-        <v>-9.3455150000000004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-9.2994059999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D11" s="10">
-        <v>4.8422184430000001</v>
+        <v>4.707955084</v>
       </c>
       <c r="E11" s="10">
-        <v>-5621.0812020000003</v>
+        <v>-5449.8886869999997</v>
       </c>
       <c r="F11" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G11" s="10">
-        <v>-9.1986499999999992E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-9.2329720000000007E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
       <c r="D12" s="10">
-        <v>4.6818</v>
+        <v>4.6900941600000001</v>
       </c>
       <c r="E12" s="10">
-        <v>-5455.2664000000004</v>
+        <v>-5354.3807349999997</v>
       </c>
       <c r="F12" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G12" s="10">
+        <v>-9.3455150000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4.8422184430000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-5621.0812020000003</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-9.1986499999999992E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.6818</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-5455.2664000000004</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G14" s="10">
         <v>-8.9677999999999997E-3</v>
       </c>
     </row>
@@ -1957,24 +2173,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.88671875" style="6"/>
+    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2003,256 +2220,304 @@
         <v>102</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>0.03</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <v>0.09</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="10">
         <v>0.08</v>
       </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>0.13</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>-1.4E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>0.09</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="10">
         <v>0.08</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>7.8E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <v>0.12</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="10">
         <v>0.08</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>-1.4E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>0.1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <v>0.13</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>0.03</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>0.09</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>7.8E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <v>0.1</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>-0.02</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="10">
         <v>0.17</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>0.09</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>0.13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <v>0.12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>0.13</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>-0.02</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>0.08</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>0.08</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="10">
         <v>0.08</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="10">
         <v>4.7E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <v>0.17</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="10">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="I9" s="9">
@@ -2261,36 +2526,122 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2306,19 +2657,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2358,7 +2709,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2378,7 +2729,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2398,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2418,7 +2769,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2438,7 +2789,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2455,6 +2806,46 @@
         <v>-34.510199999999998</v>
       </c>
       <c r="F7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2476,16 +2867,16 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +2893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2910,7 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2536,7 +2927,7 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2553,7 +2944,7 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2961,7 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2587,7 +2978,7 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2604,7 +2995,7 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +3012,7 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2638,7 +3029,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +3046,7 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +3063,7 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -2689,7 +3080,7 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -2706,7 +3097,7 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +3114,7 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +3131,7 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2757,7 +3148,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +3165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -2791,7 +3182,7 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2808,7 +3199,7 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -2825,7 +3216,7 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2842,7 +3233,7 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -2859,7 +3250,7 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -2876,7 +3267,7 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -2893,7 +3284,7 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -2910,7 +3301,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -2927,7 +3318,7 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -2944,7 +3335,7 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -2961,7 +3352,7 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -2978,7 +3369,7 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -2995,7 +3386,7 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3403,7 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -3029,7 +3420,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -3053,24 +3444,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -3090,7 +3481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3521,7 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3150,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3170,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3190,67 +3581,67 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="23">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <v>-100</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>-22.06505254</v>
-      </c>
-      <c r="E8">
-        <v>2760.1604400000001</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>-23.728977069999999</v>
-      </c>
-      <c r="E9">
-        <v>3843.277306</v>
-      </c>
-      <c r="F9">
-        <v>8882.4254299999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>8</v>
+      </c>
+      <c r="D9" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3258,19 +3649,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-100</v>
+        <v>-22.06505254</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2760.1604400000001</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3278,19 +3669,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>-21.842441359999999</v>
+        <v>-23.728977069999999</v>
       </c>
       <c r="E11">
-        <v>2337.176449</v>
+        <v>3843.277306</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8882.4254299999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3298,19 +3689,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-22.403651719999999</v>
+        <v>-100</v>
       </c>
       <c r="E12">
-        <v>3171.7603869999998</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3318,99 +3709,99 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>-21.842441359999999</v>
+      </c>
+      <c r="E13">
+        <v>2337.176449</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>-22.403651719999999</v>
+      </c>
+      <c r="E14">
+        <v>3171.7603869999998</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="23">
         <v>-100</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>-23.574602980000002</v>
-      </c>
-      <c r="E14">
-        <v>2708.8070149999999</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>-24.837826750000001</v>
-      </c>
-      <c r="E15">
-        <v>926.98965250000003</v>
-      </c>
-      <c r="F15">
-        <v>43614.852559999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
+        <v>7</v>
+      </c>
+      <c r="D16" s="23">
         <v>-100</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>-22.97258845</v>
-      </c>
-      <c r="E17">
-        <v>2499.2232410000001</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23">
+        <v>8</v>
+      </c>
+      <c r="D17" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3418,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>-25.175152000000001</v>
+        <v>-23.574602980000002</v>
       </c>
       <c r="E18">
-        <v>3089.4741450000001</v>
+        <v>2708.8070149999999</v>
       </c>
       <c r="F18">
-        <v>48259.677799999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3438,136 +3829,296 @@
         <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-100</v>
+        <v>-24.837826750000001</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>926.98965250000003</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43614.852559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>-20.699072309999998</v>
+        <v>-100</v>
       </c>
       <c r="E20">
-        <v>2147.68986</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-12013.621069999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>-22.229064659999999</v>
+        <v>-22.97258845</v>
       </c>
       <c r="E21">
-        <v>3534.8896070000001</v>
+        <v>2499.2232410000001</v>
       </c>
       <c r="F21">
-        <v>-3371.30006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>-25.175152000000001</v>
+      </c>
+      <c r="E22">
+        <v>3089.4741450000001</v>
+      </c>
+      <c r="F22">
+        <v>48259.677799999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="23">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-20.699072309999998</v>
+      </c>
+      <c r="E26">
+        <v>2147.68986</v>
+      </c>
+      <c r="F26">
+        <v>-12013.621069999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>-22.229064659999999</v>
+      </c>
+      <c r="E27">
+        <v>3534.8896070000001</v>
+      </c>
+      <c r="F27">
+        <v>-3371.30006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D28">
         <v>-23.130700000000001</v>
       </c>
-      <c r="E22">
+      <c r="E28">
         <v>4176.1979000000001</v>
       </c>
-      <c r="F22">
+      <c r="F28">
         <v>45939.459300000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <v>-20.615956090000001</v>
       </c>
-      <c r="E23">
+      <c r="E29">
         <v>2033.604317</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D30">
         <v>-21.091724119999999</v>
       </c>
-      <c r="E24">
+      <c r="E30">
         <v>2405.3661569999999</v>
       </c>
-      <c r="F24">
+      <c r="F30">
         <v>28783</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B31" s="23">
+        <v>1</v>
+      </c>
+      <c r="C31" s="23">
         <v>6</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D31" s="23">
         <v>-41.589308423376103</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E31" s="23">
         <v>12568.4056539184</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F31" s="23">
         <v>-984700.06756650598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>7</v>
+      </c>
+      <c r="D32" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>8</v>
+      </c>
+      <c r="D33" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3580,20 +4131,20 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3616,7 +4167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -3639,7 +4190,7 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3662,7 +4213,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3685,7 +4236,7 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3708,7 +4259,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -3731,7 +4282,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3754,7 +4305,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -3777,7 +4328,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -3800,7 +4351,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3823,7 +4374,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313480E-DEAF-4DD8-82F3-7EF34ACD0CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E14AE4-EEA0-4DB8-8922-21C280101D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
   <si>
     <t>Compound ID</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>i-C4H10</t>
-  </si>
-  <si>
-    <t>H2S</t>
   </si>
   <si>
     <t>0.0885</t>
@@ -952,7 +949,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -992,7 +989,7 @@
         <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,7 +1122,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,20 +1195,20 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -1291,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -1538,13 +1535,13 @@
         <v>0.184</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="23">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I8" s="10">
         <v>10.57</v>
@@ -1558,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="18">
         <v>469.8</v>
@@ -1576,7 +1573,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1590,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="18">
         <v>507.6</v>
@@ -1608,7 +1605,7 @@
         <v>100</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1829,7 +1826,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="23">
         <v>0</v>
@@ -2012,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="23">
         <v>0</v>
@@ -2173,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,13 +2182,13 @@
     <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.85546875" style="6"/>
+    <col min="7" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2217,19 +2214,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2254,20 +2248,17 @@
       <c r="H2" s="10">
         <v>0.09</v>
       </c>
-      <c r="I2" s="10">
-        <v>0.08</v>
+      <c r="I2" s="4">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J2" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K2" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2292,20 +2283,17 @@
       <c r="H3" s="10">
         <v>0.13</v>
       </c>
-      <c r="I3" s="10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K3" s="20">
+      <c r="J3" s="20">
         <v>0.01</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -2330,8 +2318,8 @@
       <c r="H4" s="10">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I4" s="10">
-        <v>0.08</v>
+      <c r="I4" s="7">
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -2339,11 +2327,8 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2368,20 +2353,17 @@
       <c r="H5" s="10">
         <v>0.12</v>
       </c>
-      <c r="I5" s="10">
-        <v>0.08</v>
+      <c r="I5" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K5" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
@@ -2406,20 +2388,17 @@
       <c r="H6" s="10">
         <v>0.13</v>
       </c>
-      <c r="I6" s="10">
-        <v>4.7E-2</v>
+      <c r="I6" s="4">
+        <v>0.01</v>
       </c>
       <c r="J6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="K6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2444,20 +2423,17 @@
       <c r="H7" s="10">
         <v>-0.02</v>
       </c>
-      <c r="I7" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K7" s="20">
+      <c r="J7" s="20">
         <v>0.02</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2482,43 +2458,40 @@
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
-        <v>9.7000000000000003E-2</v>
+      <c r="I8" s="4">
+        <v>0.01</v>
       </c>
       <c r="J8" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.01</v>
       </c>
-      <c r="K8" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="H9" s="10">
-        <v>9.7000000000000003E-2</v>
+      <c r="G9" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.01</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -2529,34 +2502,31 @@
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2.5000000000000001E-2</v>
+      <c r="G10" s="20">
+        <v>0.02</v>
       </c>
       <c r="H10" s="4">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -2564,37 +2534,32 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.01</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.4999999999999999E-2</v>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -2603,45 +2568,6 @@
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +2586,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -2834,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -3446,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" activeCellId="3" sqref="A10:XFD10 A19:XFD19 A28:XFD28 A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E14AE4-EEA0-4DB8-8922-21C280101D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458AC92E-E34D-4050-AD3F-990DA5FF4710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
   <si>
     <t>Compound ID</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>guessConst</t>
+  </si>
+  <si>
+    <t>M (g/mol)</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -632,6 +635,7 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -923,30 +927,30 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>108</v>
@@ -961,18 +965,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -992,7 +996,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1125,17 +1129,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1167,12 +1171,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1180,12 +1184,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1193,12 +1197,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -1214,12 +1218,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1227,12 +1231,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1240,12 +1244,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1253,12 +1257,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1266,12 +1270,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1286,24 +1290,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1338,11 @@
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1389,8 +1396,11 @@
       <c r="J3" s="10">
         <v>2.593</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1421,8 +1431,11 @@
       <c r="J4" s="10">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1453,8 +1466,11 @@
       <c r="J5" s="10">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="25">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1485,8 +1501,11 @@
       <c r="J6" s="10">
         <v>1.7403</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1517,8 +1536,11 @@
       <c r="J7" s="10">
         <v>2.911</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>44.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1549,8 +1571,11 @@
       <c r="J8" s="10">
         <v>8.14</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>58.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1581,8 +1606,11 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>72.150000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1612,6 +1640,9 @@
       </c>
       <c r="J10" s="7">
         <v>0</v>
+      </c>
+      <c r="K10">
+        <v>86.18</v>
       </c>
     </row>
   </sheetData>
@@ -1627,18 +1658,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1739,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1774,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1778,7 +1809,7 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1844,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -1829,18 +1860,18 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="6"/>
+    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1917,7 @@
         <v>-8.332061E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1909,7 +1940,7 @@
         <v>-9.7740029999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1963,7 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1986,7 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +2009,7 @@
         <v>-7.522178E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2047,7 +2078,7 @@
         <v>-7.7759170000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2070,7 +2101,7 @@
         <v>-9.2994059999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2124,7 @@
         <v>-9.2329720000000007E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2147,7 @@
         <v>-9.3455150000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2139,7 +2170,7 @@
         <v>-9.1986499999999992E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -2176,19 +2207,19 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.85546875" style="6"/>
+    <col min="9" max="9" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="11.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2223,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -2328,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
@@ -2398,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2433,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2468,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -2503,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -2536,7 +2567,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -2589,13 +2620,13 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="6"/>
+    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2635,7 +2666,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2655,7 +2686,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2675,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2695,7 +2726,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2715,7 +2746,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2735,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2755,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2793,16 +2824,16 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2867,7 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2884,7 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2901,7 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2887,7 +2918,7 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2935,7 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2921,7 +2952,7 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +2969,7 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2986,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +3003,7 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2989,7 +3020,7 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3054,7 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3040,7 +3071,7 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3057,7 +3088,7 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -3074,7 +3105,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3091,7 +3122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +3139,7 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3125,7 +3156,7 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3142,7 +3173,7 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3159,7 +3190,7 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -3176,7 +3207,7 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3193,7 +3224,7 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -3210,7 +3241,7 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -3227,7 +3258,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -3244,7 +3275,7 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -3261,7 +3292,7 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -3278,7 +3309,7 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -3312,7 +3343,7 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -3329,7 +3360,7 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -3346,7 +3377,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -3376,18 +3407,18 @@
       <selection activeCell="A37" activeCellId="3" sqref="A10:XFD10 A19:XFD19 A28:XFD28 A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -3407,7 +3438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3427,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3447,7 +3478,7 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3467,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3487,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3507,7 +3538,7 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
@@ -3527,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -3547,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -3567,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3587,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3607,7 +3638,7 @@
         <v>8882.4254299999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3627,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3647,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
@@ -3687,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
@@ -3727,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3747,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3767,7 +3798,7 @@
         <v>43614.852559999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3787,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3807,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -3827,7 +3858,7 @@
         <v>48259.677799999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>34</v>
       </c>
@@ -3867,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
@@ -3887,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -3907,7 +3938,7 @@
         <v>-12013.621069999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -3927,7 +3958,7 @@
         <v>-3371.30006</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -3947,7 +3978,7 @@
         <v>45939.459300000002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3967,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -3987,7 +4018,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +4038,7 @@
         <v>-984700.06756650598</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>34</v>
       </c>
@@ -4027,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>34</v>
       </c>
@@ -4060,17 +4091,17 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -4093,7 +4124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4116,7 +4147,7 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4139,7 +4170,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4162,7 +4193,7 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -4185,7 +4216,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -4208,7 +4239,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -4231,7 +4262,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -4254,7 +4285,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -4277,7 +4308,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4300,7 +4331,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458AC92E-E34D-4050-AD3F-990DA5FF4710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8589EF0-1F43-449B-A84E-70ECF9DD8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
   <si>
     <t>Compound ID</t>
   </si>
@@ -466,9 +466,6 @@
     <t>All Data Except C5 &amp; C6:</t>
   </si>
   <si>
-    <t>C5 &amp; C6:</t>
-  </si>
-  <si>
     <t>Max Conc.</t>
   </si>
   <si>
@@ -476,6 +473,18 @@
   </si>
   <si>
     <t>M (g/mol)</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>{119: 1}</t>
+  </si>
+  <si>
+    <t>O2, C5, &amp; C6:</t>
+  </si>
+  <si>
+    <t>Low-Pressure Solubility of Gases in Liquid Water EMMERICH WILHELM, RUBIN BATTING, and ROBERT J. WILCOCK</t>
   </si>
 </sst>
 </file>
@@ -927,30 +936,30 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>108</v>
@@ -969,14 +978,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -993,10 +1002,10 @@
         <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1125,21 +1134,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1171,12 +1180,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1184,12 +1193,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1197,12 +1206,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -1210,33 +1219,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1244,12 +1253,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1257,12 +1266,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -1270,12 +1279,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1290,24 +1299,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -1339,10 +1348,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1435,7 +1444,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>58.12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1643,6 +1652,41 @@
       </c>
       <c r="K10">
         <v>86.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="10">
+        <v>154.58099999999999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.512E-2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="5">
+        <v>12.07</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="K11">
+        <v>15.999000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1658,18 +1702,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1739,7 +1783,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1818,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1809,7 +1853,7 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +1888,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -1854,24 +1898,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="6"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +1961,7 @@
         <v>-8.332061E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1940,7 +1984,7 @@
         <v>-9.7740029999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1963,7 +2007,7 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1986,7 +2030,7 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2009,7 +2053,7 @@
         <v>-7.522178E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -2078,7 +2122,7 @@
         <v>-7.7759170000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2145,7 @@
         <v>-9.2994059999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2124,7 +2168,7 @@
         <v>-9.2329720000000007E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2147,7 +2191,7 @@
         <v>-9.3455150000000004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2170,7 +2214,7 @@
         <v>-9.1986499999999992E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -2191,6 +2235,29 @@
       </c>
       <c r="G14" s="10">
         <v>-8.9677999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.6900941600000001</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-5354.3807349999997</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-9.3455150000000004E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2201,25 +2268,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.88671875" style="6"/>
+    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5703125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2251,10 +2318,13 @@
         <v>109</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2358,11 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2323,8 +2396,11 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -2358,8 +2434,11 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2393,8 +2472,11 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
@@ -2428,8 +2510,11 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2463,8 +2548,11 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2498,8 +2586,11 @@
       <c r="K8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -2533,8 +2624,11 @@
       <c r="K9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -2565,40 +2659,86 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2614,19 +2754,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2646,7 +2786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2666,7 +2806,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2686,7 +2826,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2706,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2726,7 +2866,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2746,7 +2886,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2766,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2786,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2804,6 +2944,26 @@
       </c>
       <c r="F9" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-286.94200000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15450.6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>36.5593</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.87662E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2820,20 +2980,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE349D4-1129-4225-BFFF-FB3589E12B53}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -2850,7 +3010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2867,7 +3027,7 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +3044,7 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +3061,7 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +3078,7 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2935,7 +3095,7 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2952,7 +3112,7 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2969,7 +3129,7 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3146,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3003,7 +3163,7 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3180,7 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +3197,7 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3054,7 +3214,7 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3071,7 +3231,7 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3248,7 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -3105,7 +3265,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3122,7 +3282,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3139,7 +3299,7 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3156,7 +3316,7 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3173,7 +3333,7 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3190,7 +3350,7 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -3207,7 +3367,7 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -3224,7 +3384,7 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -3241,7 +3401,7 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -3258,7 +3418,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -3275,7 +3435,7 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -3292,7 +3452,7 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -3309,7 +3469,7 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3326,7 +3486,7 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -3343,7 +3503,7 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -3360,7 +3520,7 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -3377,7 +3537,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -3401,24 +3561,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" activeCellId="3" sqref="A10:XFD10 A19:XFD19 A28:XFD28 A37:XFD37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -3438,7 +3598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3458,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3478,7 +3638,7 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3498,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3518,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3538,7 +3698,7 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -3578,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3618,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3638,7 +3798,7 @@
         <v>8882.4254299999993</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3658,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3678,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3698,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
@@ -3758,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3778,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3798,7 +3958,7 @@
         <v>43614.852559999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3818,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3838,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -3858,7 +4018,7 @@
         <v>48259.677799999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>34</v>
       </c>
@@ -3878,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>34</v>
       </c>
@@ -3898,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
@@ -3918,27 +4078,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>-20.699072309999998</v>
-      </c>
-      <c r="E26">
-        <v>2147.68986</v>
-      </c>
-      <c r="F26">
-        <v>-12013.621069999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>-22.97258845</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2499.2232410000001</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -3946,19 +4106,19 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>-22.229064659999999</v>
+        <v>-20.699072309999998</v>
       </c>
       <c r="E27">
-        <v>3534.8896070000001</v>
+        <v>2147.68986</v>
       </c>
       <c r="F27">
-        <v>-3371.30006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-12013.621069999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -3966,19 +4126,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>-23.130700000000001</v>
+        <v>-22.229064659999999</v>
       </c>
       <c r="E28">
-        <v>4176.1979000000001</v>
+        <v>3534.8896070000001</v>
       </c>
       <c r="F28">
-        <v>45939.459300000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-3371.30006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -3986,19 +4146,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>-20.615956090000001</v>
+        <v>-23.130700000000001</v>
       </c>
       <c r="E29">
-        <v>2033.604317</v>
+        <v>4176.1979000000001</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45939.459300000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -4006,39 +4166,39 @@
         <v>1</v>
       </c>
       <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E30">
+        <v>2033.604317</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>-21.091724119999999</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>2405.3661569999999</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>28783</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="23">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23">
-        <v>6</v>
-      </c>
-      <c r="D31" s="23">
-        <v>-41.589308423376103</v>
-      </c>
-      <c r="E31" s="23">
-        <v>12568.4056539184</v>
-      </c>
-      <c r="F31" s="23">
-        <v>-984700.06756650598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>34</v>
       </c>
@@ -4046,19 +4206,19 @@
         <v>1</v>
       </c>
       <c r="C32" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="23">
-        <v>-100</v>
+        <v>-41.589308423376103</v>
       </c>
       <c r="E32" s="23">
-        <v>0</v>
+        <v>12568.4056539184</v>
       </c>
       <c r="F32" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-984700.06756650598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>34</v>
       </c>
@@ -4066,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="23">
         <v>-100</v>
@@ -4075,6 +4235,46 @@
         <v>0</v>
       </c>
       <c r="F33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="23">
+        <v>8</v>
+      </c>
+      <c r="D34" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E35" s="7">
+        <v>2033.604317</v>
+      </c>
+      <c r="F35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4091,17 +4291,17 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -4124,7 +4324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4147,7 +4347,7 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4170,7 +4370,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4193,7 +4393,7 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -4216,7 +4416,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -4239,7 +4439,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -4262,7 +4462,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -4285,7 +4485,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -4308,7 +4508,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -4331,7 +4531,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8589EF0-1F43-449B-A84E-70ECF9DD8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EA0452-09E2-4164-A551-467D1794608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
     <sheet name="Fluid Properties" sheetId="1" r:id="rId2"/>
-    <sheet name="Hydrate Cell Properties" sheetId="2" r:id="rId3"/>
-    <sheet name="Vapor Pressure Constants" sheetId="6" r:id="rId4"/>
-    <sheet name="Binary Interaction Parameters" sheetId="7" r:id="rId5"/>
-    <sheet name="Henrys Law Parameters" sheetId="8" r:id="rId6"/>
-    <sheet name="A_int" sheetId="9" r:id="rId7"/>
-    <sheet name="Langmuir Parameters" sheetId="10" r:id="rId8"/>
-    <sheet name="Salts Data" sheetId="12" r:id="rId9"/>
-    <sheet name="Inhibitor Data" sheetId="13" r:id="rId10"/>
-    <sheet name="Credits" sheetId="11" r:id="rId11"/>
+    <sheet name="Guess Constants" sheetId="14" r:id="rId3"/>
+    <sheet name="Hydrate Cell Properties" sheetId="2" r:id="rId4"/>
+    <sheet name="Vapor Pressure Constants" sheetId="6" r:id="rId5"/>
+    <sheet name="Binary Interaction Parameters" sheetId="7" r:id="rId6"/>
+    <sheet name="Henrys Law Parameters" sheetId="8" r:id="rId7"/>
+    <sheet name="A_int" sheetId="9" r:id="rId8"/>
+    <sheet name="Langmuir Parameters" sheetId="10" r:id="rId9"/>
+    <sheet name="Salts Data" sheetId="12" r:id="rId10"/>
+    <sheet name="Inhibitor Data" sheetId="13" r:id="rId11"/>
+    <sheet name="Credits" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="z_cabr2_a">'Salts Data'!$G$9</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="118">
   <si>
     <t>Compound ID</t>
   </si>
@@ -469,22 +470,19 @@
     <t>Max Conc.</t>
   </si>
   <si>
-    <t>guessConst</t>
-  </si>
-  <si>
     <t>M (g/mol)</t>
   </si>
   <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>{119: 1}</t>
-  </si>
-  <si>
     <t>O2, C5, &amp; C6:</t>
   </si>
   <si>
     <t>Low-Pressure Solubility of Gases in Liquid Water EMMERICH WILHELM, RUBIN BATTING, and ROBERT J. WILCOCK</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -643,8 +641,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -971,11 +969,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>58.44</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>74.55</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>110.98</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>95.210999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>199.89</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>102.89400000000001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>119.002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-3.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>53.491</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>84.114999999999995</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-3.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1404,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1495,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -1237,7 +1511,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A11" activeCellId="1" sqref="A12:XFD12 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1586,7 @@
     <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1335,9 +1609,7 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,9 +1664,6 @@
       </c>
       <c r="F3" s="17">
         <v>-1.5900000000000001E-3</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0.06</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>18</v>
@@ -1428,9 +1697,6 @@
       <c r="F4" s="17">
         <v>2.6689999999999998E-2</v>
       </c>
-      <c r="G4" s="23">
-        <v>4.9000000000000002E-2</v>
-      </c>
       <c r="H4" s="19" t="s">
         <v>19</v>
       </c>
@@ -1463,9 +1729,6 @@
       <c r="F5" s="17">
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="G5" s="23">
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1738,7 @@
       <c r="J5" s="10">
         <v>6.29</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>44.1</v>
       </c>
     </row>
@@ -1498,9 +1761,6 @@
       <c r="F6" s="15">
         <v>1.9959999999999999E-2</v>
       </c>
-      <c r="G6" s="23">
-        <v>6.3E-2</v>
-      </c>
       <c r="H6" s="19" t="s">
         <v>21</v>
       </c>
@@ -1533,9 +1793,6 @@
       <c r="F7" s="17">
         <v>4.2849999999999999E-2</v>
       </c>
-      <c r="G7" s="23">
-        <v>5.2999999999999999E-2</v>
-      </c>
       <c r="H7" s="19" t="s">
         <v>22</v>
       </c>
@@ -1568,9 +1825,6 @@
       <c r="F8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="23">
-        <v>4.2000000000000003E-2</v>
-      </c>
       <c r="H8" s="19" t="s">
         <v>103</v>
       </c>
@@ -1603,9 +1857,6 @@
       <c r="F9" s="17">
         <v>3.9460000000000002E-2</v>
       </c>
-      <c r="G9" s="23">
-        <v>100</v>
-      </c>
       <c r="H9" s="19" t="s">
         <v>107</v>
       </c>
@@ -1638,9 +1889,6 @@
       <c r="F10" s="17">
         <v>5.1040000000000002E-2</v>
       </c>
-      <c r="G10" s="23">
-        <v>100</v>
-      </c>
       <c r="H10" s="19" t="s">
         <v>110</v>
       </c>
@@ -1652,41 +1900,6 @@
       </c>
       <c r="K10">
         <v>86.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="10">
-        <v>154.58099999999999</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5.0430000000000001</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1.512E-2</v>
-      </c>
-      <c r="G11" s="23">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="5">
-        <v>12.07</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="K11">
-        <v>15.999000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1695,6 +1908,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFE52-92CE-4FEC-992A-FF5A9CFFB692}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>129.659115979566</v>
+      </c>
+      <c r="D3">
+        <v>3.64091429994386E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>7.8212786400165997E-9</v>
+      </c>
+      <c r="F3">
+        <v>0.121774612413415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6.6533792143221401E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.9110296232815197E-2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1.36043491825702E-11</v>
+      </c>
+      <c r="F4">
+        <v>0.13902368046010199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.15612805938389801</v>
+      </c>
+      <c r="D5">
+        <v>5.0934281841082597E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.26760267742407E-21</v>
+      </c>
+      <c r="F5">
+        <v>0.22033430086529901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2.57526399698849E-4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.1388020629344494E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.57526399698849E-4</v>
+      </c>
+      <c r="F6">
+        <v>9.1388020629344494E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8.1579429728900297E-10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.127883243045434</v>
+      </c>
+      <c r="E7" s="25">
+        <v>8.1579429728900297E-10</v>
+      </c>
+      <c r="F7">
+        <v>0.127883243045434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8">
+        <v>1.5443976418499501E-2</v>
+      </c>
+      <c r="D8">
+        <v>5.78771335163605E-2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>5.8185831753262703E-21</v>
+      </c>
+      <c r="F8">
+        <v>0.21316356836854899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4090358-173C-44BB-A247-EE9EC23BA973}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -1896,12 +2328,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,41 +2669,18 @@
         <v>-8.9677999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4.6900941600000001</v>
-      </c>
-      <c r="E15" s="7">
-        <v>-5354.3807349999997</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G15" s="7">
-        <v>-9.3455150000000004E-3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,11 +2691,11 @@
     <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="11.85546875" style="6"/>
+    <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2318,13 +2727,10 @@
         <v>109</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2358,11 +2764,8 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2396,11 +2799,8 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -2434,11 +2834,8 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2472,11 +2869,8 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>101</v>
       </c>
@@ -2510,11 +2904,8 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2548,11 +2939,8 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2586,11 +2974,8 @@
       <c r="K8" s="7">
         <v>0</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -2624,11 +3009,8 @@
       <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
@@ -2662,13 +3044,10 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -2699,271 +3078,6 @@
       </c>
       <c r="K11" s="9">
         <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-365.18299999999999</v>
-      </c>
-      <c r="D2" s="10">
-        <v>18106.7</v>
-      </c>
-      <c r="E2" s="10">
-        <v>49.755400000000002</v>
-      </c>
-      <c r="F2" s="10">
-        <v>-2.9E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-533.39200000000005</v>
-      </c>
-      <c r="D3" s="10">
-        <v>26565</v>
-      </c>
-      <c r="E3" s="10">
-        <v>74.623999999999995</v>
-      </c>
-      <c r="F3" s="10">
-        <v>-4.5700000000000003E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-628.86599999999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>31638.400000000001</v>
-      </c>
-      <c r="E4" s="10">
-        <v>88.080799999999996</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-327.85</v>
-      </c>
-      <c r="D5" s="10">
-        <v>16757.599999999999</v>
-      </c>
-      <c r="E5" s="10">
-        <v>42.84</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1.677E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-317.65800000000002</v>
-      </c>
-      <c r="D6" s="10">
-        <v>17371.2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>43.060699999999997</v>
-      </c>
-      <c r="F6" s="10">
-        <v>-2.1900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="10">
-        <v>190.982</v>
-      </c>
-      <c r="D7" s="10">
-        <v>-4913</v>
-      </c>
-      <c r="E7" s="10">
-        <v>-34.510199999999998</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-286.94200000000001</v>
-      </c>
-      <c r="D10" s="10">
-        <v>15450.6</v>
-      </c>
-      <c r="E10" s="10">
-        <v>36.5593</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1.87662E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2977,6 +3091,210 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-365.18299999999999</v>
+      </c>
+      <c r="D2" s="10">
+        <v>18106.7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>49.755400000000002</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-2.9E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-533.39200000000005</v>
+      </c>
+      <c r="D3" s="10">
+        <v>26565</v>
+      </c>
+      <c r="E3" s="10">
+        <v>74.623999999999995</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-4.5700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-628.86599999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>31638.400000000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>88.080799999999996</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-327.85</v>
+      </c>
+      <c r="D5" s="10">
+        <v>16757.599999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>42.84</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1.677E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-317.65800000000002</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17371.2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>43.060699999999997</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-2.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="10">
+        <v>190.982</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-4913</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-34.510199999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE349D4-1129-4225-BFFF-FB3589E12B53}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3559,12 +3877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" activeCellId="3" sqref="A28:XFD28 A37:XFD37 A19:XFD19 A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,23 +4397,23 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-22.97258845</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2499.2232410000001</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-20.699072309999998</v>
+      </c>
+      <c r="E26">
+        <v>2147.68986</v>
+      </c>
+      <c r="F26">
+        <v>-12013.621069999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,16 +4424,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>-20.699072309999998</v>
+        <v>-22.229064659999999</v>
       </c>
       <c r="E27">
-        <v>2147.68986</v>
+        <v>3534.8896070000001</v>
       </c>
       <c r="F27">
-        <v>-12013.621069999999</v>
+        <v>-3371.30006</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,16 +4444,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>-22.229064659999999</v>
+        <v>-23.130700000000001</v>
       </c>
       <c r="E28">
-        <v>3534.8896070000001</v>
+        <v>4176.1979000000001</v>
       </c>
       <c r="F28">
-        <v>-3371.30006</v>
+        <v>45939.459300000002</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,16 +4464,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>-23.130700000000001</v>
+        <v>-20.615956090000001</v>
       </c>
       <c r="E29">
-        <v>4176.1979000000001</v>
+        <v>2033.604317</v>
       </c>
       <c r="F29">
-        <v>45939.459300000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,36 +4484,36 @@
         <v>1</v>
       </c>
       <c r="C30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>-20.615956090000001</v>
+        <v>-21.091724119999999</v>
       </c>
       <c r="E30">
-        <v>2033.604317</v>
+        <v>2405.3661569999999</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>28783</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>-21.091724119999999</v>
-      </c>
-      <c r="E31">
-        <v>2405.3661569999999</v>
-      </c>
-      <c r="F31">
-        <v>28783</v>
+      <c r="B31" s="23">
+        <v>1</v>
+      </c>
+      <c r="C31" s="23">
+        <v>6</v>
+      </c>
+      <c r="D31" s="23">
+        <v>-41.589308423376103</v>
+      </c>
+      <c r="E31" s="23">
+        <v>12568.4056539184</v>
+      </c>
+      <c r="F31" s="23">
+        <v>-984700.06756650598</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,16 +4524,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="23">
-        <v>-41.589308423376103</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="23">
-        <v>12568.4056539184</v>
+        <v>0</v>
       </c>
       <c r="F32" s="23">
-        <v>-984700.06756650598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="23">
         <v>-100</v>
@@ -4236,322 +4554,6 @@
       </c>
       <c r="F33" s="23">
         <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1</v>
-      </c>
-      <c r="C34" s="23">
-        <v>8</v>
-      </c>
-      <c r="D34" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7">
-        <v>-20.615956090000001</v>
-      </c>
-      <c r="E35" s="7">
-        <v>2033.604317</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>58.44</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>-3.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>74.55</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>-3.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>110.98</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>-4.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>95.210999999999999</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>-4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>199.89</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>102.89400000000001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>-3.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>119.002</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-3.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>53.491</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10">
-        <v>84.114999999999995</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>68.010000000000005</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>-3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EA0452-09E2-4164-A551-467D1794608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DFAB6-77C6-4481-A888-D9224CC88B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="z_nh4cl_a">'Salts Data'!$G$12</definedName>
     <definedName name="z_nh4cl_c">'Salts Data'!$F$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="9.9999999999999995E-7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>Compound ID</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Microsoft Copilot</t>
   </si>
   <si>
-    <t>c-C3H6</t>
-  </si>
-  <si>
     <t>i-C4H10</t>
   </si>
   <si>
@@ -464,18 +461,12 @@
     <t>{1: 2, 2: 4}</t>
   </si>
   <si>
-    <t>All Data Except C5 &amp; C6:</t>
-  </si>
-  <si>
     <t>Max Conc.</t>
   </si>
   <si>
     <t>M (g/mol)</t>
   </si>
   <si>
-    <t>O2, C5, &amp; C6:</t>
-  </si>
-  <si>
     <t>Low-Pressure Solubility of Gases in Liquid Water EMMERICH WILHELM, RUBIN BATTING, and ROBERT J. WILCOCK</t>
   </si>
   <si>
@@ -483,6 +474,54 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>{119: 1}</t>
+  </si>
+  <si>
+    <t>{114:1}</t>
+  </si>
+  <si>
+    <t>All Unspecified Data:</t>
+  </si>
+  <si>
+    <t>H2S, CO2:</t>
+  </si>
+  <si>
+    <r>
+      <t>Pellegrini, Laura A., et al. “Prediction of Vapor–Liquid Equilibrium for Reservoir Mixtures with Cubic Equations of State: Binary Interaction Parameters for Acidic Gases.” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fluid Phase Equilibria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3A3A3A"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 326, 2012, pp. 45–49, https://doi.org/10.1016/j.fluid.2012.03.030.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -495,7 +534,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +584,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -604,7 +656,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -643,6 +695,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -931,7 +989,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +1018,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1334,7 @@
         <v>94</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,7 +1467,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,23 +1540,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1511,7 +1569,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A12:XFD12 A11:XFD11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1644,6 +1702,9 @@
       </c>
       <c r="H2" s="19" t="s">
         <v>17</v>
+      </c>
+      <c r="K2">
+        <v>18.02</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1811,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="18">
         <v>407.81</v>
@@ -1823,10 +1884,10 @@
         <v>0.184</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="I8" s="10">
         <v>10.57</v>
@@ -1843,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="18">
         <v>469.8</v>
@@ -1858,7 +1919,7 @@
         <v>3.9460000000000002E-2</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1875,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="18">
         <v>507.6</v>
@@ -1890,7 +1951,7 @@
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1900,6 +1961,70 @@
       </c>
       <c r="K10">
         <v>86.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="18">
+        <v>154.58099999999999</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.512E-2</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="10">
+        <v>12.07</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="K11" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="18">
+        <v>373.1</v>
+      </c>
+      <c r="D12" s="27">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10.457000000000001</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3.6309999999999998</v>
+      </c>
+      <c r="K12">
+        <v>34.08</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFE52-92CE-4FEC-992A-FF5A9CFFB692}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -2066,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>1.5443976418499501E-2</v>
@@ -2086,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2106,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2119,6 +2244,46 @@
       </c>
       <c r="F10">
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.8471359714770642E-4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9.1534449656535732E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.8471359714770642E-4</v>
+      </c>
+      <c r="F11">
+        <v>9.1534449656535732E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12">
+        <v>3.8152492603283863E-4</v>
+      </c>
+      <c r="D12">
+        <v>7.1661310148475751E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.7789107540929433E-6</v>
+      </c>
+      <c r="F12">
+        <v>9.1534449656535732E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2131,7 +2296,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F7D8E6-31A6-49F3-A3A6-8D55F635BD2D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="23">
         <v>0</v>
@@ -2513,45 +2678,45 @@
         <v>15</v>
       </c>
       <c r="B8" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D8" s="23">
-        <v>0</v>
+        <v>4.2633965515011401</v>
       </c>
       <c r="E8" s="23">
-        <v>0</v>
+        <v>-4916.2864778171997</v>
       </c>
       <c r="F8" s="23">
-        <v>0</v>
+        <v>2.7789074440000001</v>
       </c>
       <c r="G8" s="23">
-        <v>0</v>
+        <v>-4.0515614568918902E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4.6089299959999996</v>
-      </c>
-      <c r="E9" s="10">
-        <v>-5397.8454819999997</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2.7789074440000001</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-7.7759170000000002E-3</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,22 +2724,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10">
-        <v>4.7125573630000002</v>
+        <v>4.6089299959999996</v>
       </c>
       <c r="E10" s="10">
-        <v>-5464.49251</v>
+        <v>-5397.8454819999997</v>
       </c>
       <c r="F10" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G10" s="10">
-        <v>-9.2994059999999996E-3</v>
+        <v>-7.7759170000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,22 +2747,22 @@
         <v>34</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="10">
-        <v>4.707955084</v>
+        <v>4.7125573630000002</v>
       </c>
       <c r="E11" s="10">
-        <v>-5449.8886869999997</v>
+        <v>-5464.49251</v>
       </c>
       <c r="F11" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G11" s="10">
-        <v>-9.2329720000000007E-3</v>
+        <v>-9.2994059999999996E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,22 +2770,22 @@
         <v>34</v>
       </c>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="10">
-        <v>4.6900941600000001</v>
+        <v>4.707955084</v>
       </c>
       <c r="E12" s="10">
-        <v>-5354.3807349999997</v>
+        <v>-5449.8886869999997</v>
       </c>
       <c r="F12" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G12" s="10">
-        <v>-9.3455150000000004E-3</v>
+        <v>-9.2329720000000007E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,22 +2793,22 @@
         <v>34</v>
       </c>
       <c r="B13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="10">
-        <v>4.8422184430000001</v>
+        <v>4.6900941600000001</v>
       </c>
       <c r="E13" s="10">
-        <v>-5621.0812020000003</v>
+        <v>-5354.3807349999997</v>
       </c>
       <c r="F13" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G13" s="10">
-        <v>-9.1986499999999992E-3</v>
+        <v>-9.3455150000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,22 +2816,68 @@
         <v>34</v>
       </c>
       <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="10">
-        <v>4.6818</v>
+        <v>4.8422184430000001</v>
       </c>
       <c r="E14" s="10">
-        <v>-5455.2664000000004</v>
+        <v>-5621.0812020000003</v>
       </c>
       <c r="F14" s="10">
         <v>2.7789074440000001</v>
       </c>
       <c r="G14" s="10">
+        <v>-9.1986499999999992E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4.6818</v>
+      </c>
+      <c r="E15" s="10">
+        <v>-5455.2664000000004</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2.7789074440000001</v>
+      </c>
+      <c r="G15" s="10">
         <v>-8.9677999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4.6792118937450606</v>
+      </c>
+      <c r="E16" s="10">
+        <v>-5355.8991005942162</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2.7789297911135828</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-9.3266614270024004E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2677,25 +2888,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="11.85546875" style="6"/>
+    <col min="11" max="11" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2706,31 +2919,34 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2741,31 +2957,34 @@
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D2" s="10">
-        <v>3.3000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E2" s="10">
-        <v>1.6E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>2.5999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2776,229 +2995,247 @@
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <v>8.8999999999999996E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E3" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F4" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.12125</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H3" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I3" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="10">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="10">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="D6" s="10">
         <v>7.8E-2</v>
       </c>
-      <c r="H5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="10">
-        <v>-1.4E-2</v>
-      </c>
       <c r="E6" s="10">
-        <v>-7.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>-1.46E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>0.03</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="C7" s="10">
-        <v>4.3999999999999997E-2</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="D7" s="10">
-        <v>0.09</v>
+        <v>0.13239999999999999</v>
       </c>
       <c r="E7" s="10">
-        <v>7.8E-2</v>
+        <v>0.12125</v>
       </c>
       <c r="F7" s="10">
-        <v>0.1</v>
+        <v>-1.46E-2</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>-0.02</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.1239</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.1236</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="D8" s="10">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.13</v>
+        <v>103</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>-0.02</v>
+        <v>0.1239</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>108</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.01</v>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.1236</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -3006,34 +3243,37 @@
       <c r="J9" s="7">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="10">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.01</v>
+        <v>118</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.4999999999999999E-2</v>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -3044,39 +3284,83 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="14">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3092,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA5374-A525-47A3-A836-255E7FB99FAF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="10">
         <v>190.982</v>
@@ -3249,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -3269,7 +3553,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -3282,6 +3566,46 @@
       </c>
       <c r="F9" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-286.94200000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15450.6</v>
+      </c>
+      <c r="E10" s="10">
+        <v>36.5593</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1.87662E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-297.15800000000002</v>
+      </c>
+      <c r="D11" s="10">
+        <v>16347.7</v>
+      </c>
+      <c r="E11" s="10">
+        <v>40.202399999999997</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2.5715299999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3879,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" activeCellId="3" sqref="A28:XFD28 A37:XFD37 A19:XFD19 A10:XFD10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,23 +4401,23 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>-22.06505254</v>
-      </c>
-      <c r="E10">
-        <v>2760.1604400000001</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>10</v>
+      </c>
+      <c r="D10" s="23">
+        <v>-26.331200055758099</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3822.5148242806899</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-45381.8469139019</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,16 +4428,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>-23.728977069999999</v>
+        <v>-22.06505254</v>
       </c>
       <c r="E11">
-        <v>3843.277306</v>
+        <v>2760.1604400000001</v>
       </c>
       <c r="F11">
-        <v>8882.4254299999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,16 +4448,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>-100</v>
+        <v>-23.728977069999999</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3843.277306</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8882.4254299999993</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,13 +4468,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>-21.842441359999999</v>
+        <v>-100</v>
       </c>
       <c r="E13">
-        <v>2337.176449</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4164,35 +4488,35 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>-21.842441359999999</v>
+      </c>
+      <c r="E14">
+        <v>2337.176449</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-22.403651719999999</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>3171.7603869999998</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23">
-        <v>6</v>
-      </c>
-      <c r="D15" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="23">
         <v>-100</v>
@@ -4224,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="23">
         <v>-100</v>
@@ -4237,43 +4561,43 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>-23.574602980000002</v>
-      </c>
-      <c r="E18">
-        <v>2708.8070149999999</v>
-      </c>
-      <c r="F18">
+      <c r="A18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
+      <c r="C18" s="23">
+        <v>8</v>
+      </c>
+      <c r="D18" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>-24.837826750000001</v>
-      </c>
-      <c r="E19">
-        <v>926.98965250000003</v>
-      </c>
-      <c r="F19">
-        <v>43614.852559999999</v>
+      <c r="A19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23">
+        <v>10</v>
+      </c>
+      <c r="D19" s="23">
+        <v>-26.921927924317298</v>
+      </c>
+      <c r="E19" s="23">
+        <v>7358.8183572326698</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-237581.84882084699</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="C20" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-100</v>
+        <v>-23.574602980000002</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2708.8070149999999</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4304,16 +4628,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>-22.97258845</v>
+        <v>-24.837826750000001</v>
       </c>
       <c r="E21">
-        <v>2499.2232410000001</v>
+        <v>926.98965250000003</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>43614.852559999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,56 +4648,56 @@
         <v>0</v>
       </c>
       <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>-100</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>-22.97258845</v>
+      </c>
+      <c r="E23">
+        <v>2499.2232410000001</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>-25.175152000000001</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>3089.4741450000001</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>48259.677799999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="23">
-        <v>0</v>
-      </c>
-      <c r="C24" s="23">
-        <v>7</v>
-      </c>
-      <c r="D24" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="23">
         <v>-100</v>
@@ -4397,63 +4721,63 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>-20.699072309999998</v>
-      </c>
-      <c r="E26">
-        <v>2147.68986</v>
-      </c>
-      <c r="F26">
-        <v>-12013.621069999999</v>
+      <c r="B26" s="23">
+        <v>0</v>
+      </c>
+      <c r="C26" s="23">
+        <v>7</v>
+      </c>
+      <c r="D26" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>-22.229064659999999</v>
-      </c>
-      <c r="E27">
-        <v>3534.8896070000001</v>
-      </c>
-      <c r="F27">
-        <v>-3371.30006</v>
+      <c r="B27" s="23">
+        <v>0</v>
+      </c>
+      <c r="C27" s="23">
+        <v>8</v>
+      </c>
+      <c r="D27" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>-23.130700000000001</v>
-      </c>
-      <c r="E28">
-        <v>4176.1979000000001</v>
-      </c>
-      <c r="F28">
-        <v>45939.459300000002</v>
+      <c r="B28" s="23">
+        <v>0</v>
+      </c>
+      <c r="C28" s="23">
+        <v>9</v>
+      </c>
+      <c r="D28" s="23">
+        <v>-22.97258845</v>
+      </c>
+      <c r="E28" s="23">
+        <v>2499.2232410000001</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,16 +4788,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>-20.615956090000001</v>
+        <v>-20.699072309999998</v>
       </c>
       <c r="E29">
-        <v>2033.604317</v>
+        <v>2147.68986</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>-12013.621069999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,75 +4808,155 @@
         <v>1</v>
       </c>
       <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>-22.229064659999999</v>
+      </c>
+      <c r="E30">
+        <v>3534.8896070000001</v>
+      </c>
+      <c r="F30">
+        <v>-3371.30006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>-23.130700000000001</v>
+      </c>
+      <c r="E31">
+        <v>4176.1979000000001</v>
+      </c>
+      <c r="F31">
+        <v>45939.459300000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E32">
+        <v>2033.604317</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
         <v>5</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>-21.091724119999999</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>2405.3661569999999</v>
       </c>
-      <c r="F30">
+      <c r="F33">
         <v>28783</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="23">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23">
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="23">
         <v>6</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D34" s="23">
         <v>-41.589308423376103</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E34" s="23">
         <v>12568.4056539184</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F34" s="23">
         <v>-984700.06756650598</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="23">
-        <v>1</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23">
         <v>7</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D35" s="23">
         <v>-100</v>
       </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="E35" s="23">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="23">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23">
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23">
         <v>8</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D36" s="23">
         <v>-100</v>
       </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="23">
+        <v>9</v>
+      </c>
+      <c r="D37" s="23">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2033.604317</v>
+      </c>
+      <c r="F37" s="23">
         <v>0</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8DFAB6-77C6-4481-A888-D9224CC88B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90C7EA-9BA9-4C74-AFCC-642BCE05F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="3570" windowWidth="21600" windowHeight="11115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
   <si>
     <t>Compound ID</t>
   </si>
@@ -522,6 +522,12 @@
       </rPr>
       <t>, vol. 326, 2012, pp. 45–49, https://doi.org/10.1016/j.fluid.2012.03.030.</t>
     </r>
+  </si>
+  <si>
+    <t>Aspen Plus</t>
+  </si>
+  <si>
+    <t>C5, C6, O2:</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,68 +1565,76 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1633,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,11 +1935,11 @@
       <c r="H9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
+      <c r="I9" s="12">
+        <v>10.28</v>
+      </c>
+      <c r="J9" s="10">
+        <v>9.8789999999999996</v>
       </c>
       <c r="K9">
         <v>72.150000000000006</v>
@@ -1953,11 +1967,11 @@
       <c r="H10" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
+      <c r="I10" s="12">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>11.63</v>
       </c>
       <c r="K10">
         <v>86.18</v>
@@ -2890,20 +2904,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346A2A5-7BD0-454D-939F-98322DE366EF}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.85546875" style="6"/>
   </cols>
@@ -2968,19 +2983,19 @@
       <c r="G2" s="10">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
+      <c r="H2" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>-1.1901299999999999</v>
       </c>
       <c r="K2" s="14">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
@@ -3006,11 +3021,11 @@
       <c r="G3" s="10">
         <v>0.12709999999999999</v>
       </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
+      <c r="H3" s="10">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-0.01</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -3018,7 +3033,7 @@
       <c r="K3" s="14">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -3044,11 +3059,11 @@
       <c r="G4" s="10">
         <v>0.13239999999999999</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
+      <c r="H4" s="10">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -3056,7 +3071,7 @@
       <c r="K4" s="14">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
@@ -3094,7 +3109,7 @@
       <c r="K5" s="10">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
@@ -3120,19 +3135,19 @@
       <c r="G6" s="10">
         <v>-1.46E-2</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
+      <c r="H6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="J6" s="10">
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
@@ -3170,7 +3185,7 @@
       <c r="K7" s="14">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
@@ -3178,20 +3193,20 @@
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
+      <c r="B8" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
+      <c r="F8" s="10">
+        <v>0.1</v>
       </c>
       <c r="G8" s="10">
         <v>0.1239</v>
@@ -3199,16 +3214,16 @@
       <c r="H8" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
+      <c r="I8" s="10">
+        <v>3.0095000000000002E-4</v>
+      </c>
+      <c r="J8" s="10">
+        <v>-0.345891</v>
       </c>
       <c r="K8" s="10">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
@@ -3216,26 +3231,26 @@
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
+      <c r="B9" s="10">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
+      <c r="F9" s="10">
+        <v>0.14960000000000001</v>
       </c>
       <c r="G9" s="10">
         <v>0.1236</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
+      <c r="H9" s="10">
+        <v>3.0095000000000002E-4</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -3246,7 +3261,7 @@
       <c r="K9" s="10">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9">
         <v>0</v>
       </c>
     </row>
@@ -3254,8 +3269,8 @@
       <c r="A10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
+      <c r="B10" s="10">
+        <v>-1.1901299999999999</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3266,14 +3281,14 @@
       <c r="E10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
+      <c r="F10" s="10">
+        <v>-1.1900000000000001E-2</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
+      <c r="H10" s="10">
+        <v>-0.345891</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -3284,7 +3299,7 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10">
         <v>0</v>
       </c>
     </row>
@@ -3322,7 +3337,7 @@
       <c r="K11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11">
         <v>0</v>
       </c>
     </row>
@@ -3330,34 +3345,34 @@
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="9">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90C7EA-9BA9-4C74-AFCC-642BCE05F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5226436-F063-4980-8B16-283FE43372C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3570" windowWidth="21600" windowHeight="11115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="3612" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <definedName name="z_nh4cl_a">'Salts Data'!$G$12</definedName>
     <definedName name="z_nh4cl_c">'Salts Data'!$F$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="10000" iterateDelta="9.9999999999999995E-7"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -998,30 +998,30 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>107</v>
@@ -1040,17 +1040,17 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1316,14 +1316,14 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1472,21 +1472,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1518,12 +1518,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1531,12 +1531,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1544,12 +1544,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -1573,12 +1573,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1586,12 +1586,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1599,12 +1599,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1612,12 +1612,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1625,12 +1625,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1647,22 +1647,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>58.12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>86.18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -2050,17 +2050,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFE52-92CE-4FEC-992A-FF5A9CFFB692}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0.121774612413415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0.13902368046010199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.22033430086529901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9.1388020629344494E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0.127883243045434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0.21316356836854899</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2228,19 +2228,19 @@
         <v>103</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2248,19 +2248,19 @@
         <v>108</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>9.1534449656535732E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -2313,18 +2313,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -2515,18 +2515,18 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="6"/>
+    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>-8.332061E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>-9.7740029999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>-7.522178E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>-4.0515614568918902E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>-7.7759170000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>-9.2994059999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-9.2329720000000007E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>-9.3455150000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>-9.1986499999999992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>-8.9677999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2908,22 +2908,22 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.85546875" style="6"/>
+    <col min="10" max="10" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>118</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>117</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3397,13 +3397,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5703125" style="6"/>
+    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3551,10 +3551,10 @@
         <v>103</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>-660</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3571,10 +3571,10 @@
         <v>108</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>-680</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>1.87662E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3641,16 +3641,16 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -4224,18 +4224,18 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="6"/>
+    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>-45381.8469139019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>8882.4254299999993</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>15</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>-237581.84882084699</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>43614.852559999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>48259.677799999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>34</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>-12013.621069999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>-3371.30006</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>45939.459300000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>-984700.06756650598</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>34</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>34</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5226436-F063-4980-8B16-283FE43372C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2DA07-D1CA-442F-9C9E-E46B0F293057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3612" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -998,30 +998,30 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
         <v>107</v>
@@ -1040,17 +1040,17 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>-3.72</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>-3.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>-4.74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>-4.6399999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>-3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>-3.56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1316,14 +1316,14 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1476,17 +1476,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1518,12 +1518,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1531,12 +1531,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1544,12 +1544,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -1573,12 +1573,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1586,12 +1586,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1599,12 +1599,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1612,12 +1612,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1625,12 +1625,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1651,18 +1651,18 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>18.02</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>16.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>58.12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>86.18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -2051,16 +2051,16 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0.121774612413415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0.13902368046010199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0.22033430086529901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9.1388020629344494E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2188,19 +2188,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="7">
-        <v>8.1579429728900297E-10</v>
+        <v>1.1604841434668679E-8</v>
       </c>
       <c r="D7" s="7">
-        <v>0.127883243045434</v>
-      </c>
-      <c r="E7" s="25">
-        <v>8.1579429728900297E-10</v>
+        <v>0.11842350187371004</v>
+      </c>
+      <c r="E7">
+        <v>2.5556107076564184E-4</v>
       </c>
       <c r="F7">
-        <v>0.127883243045434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.2930344993050589E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0.21316356836854899</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>9.1534449656535732E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>116</v>
       </c>
@@ -2313,18 +2313,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" customWidth="1"/>
+    <col min="3" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0.13043478260869601</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0.11764705882352899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>5.8823529411764698E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -2515,18 +2515,18 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="6"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>-8.332061E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>-9.7740029999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>-6.9712649999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>-9.5060219999999994E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>-7.522178E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>-4.0515614568918902E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>-7.7759170000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>-9.2994059999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-9.2329720000000007E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>-9.3455150000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>-9.1986499999999992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>-8.9677999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -2908,22 +2908,22 @@
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.88671875" style="6"/>
+    <col min="10" max="10" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>103</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>118</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>117</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -3397,13 +3397,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="2" width="15.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>-4.5700000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1.677E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>1.87662E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3641,16 +3641,16 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>12.25367</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>13.41525</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>10.3552</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>12.389939999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>9.5643999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>12.12665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0.86602000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>4.4717500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>5.1404800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>4.1299799999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>3.7491599999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>4.0248200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>3.0958100000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.55901000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>6.9276799999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>6.9114300000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>6.2339200000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>6.2827099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>6.06724</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>6.1021400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.35354999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>13.82287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>5.1167699999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>12.56542</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>4.3318099999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>12.204280000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>4.1110199999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.41456999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -4224,18 +4224,18 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6"/>
-    <col min="2" max="2" width="5.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="6"/>
+    <col min="6" max="6" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>65052.415789999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>31948.649580000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>-45381.8469139019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>8882.4254299999993</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>15</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>15</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>-237581.84882084699</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>43614.852559999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>48259.677799999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>34</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>-12013.621069999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>-3371.30006</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>45939.459300000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>28783</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>-984700.06756650598</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>34</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>34</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF2DA07-D1CA-442F-9C9E-E46B0F293057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1057C-FE8E-4672-A442-6B3EE9354EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11115" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="Vapor Pressure Constants" sheetId="6" r:id="rId5"/>
     <sheet name="Binary Interaction Parameters" sheetId="7" r:id="rId6"/>
     <sheet name="Henrys Law Parameters" sheetId="8" r:id="rId7"/>
-    <sheet name="A_int" sheetId="9" r:id="rId8"/>
-    <sheet name="Langmuir Parameters" sheetId="10" r:id="rId9"/>
-    <sheet name="Salts Data" sheetId="12" r:id="rId10"/>
-    <sheet name="Inhibitor Data" sheetId="13" r:id="rId11"/>
-    <sheet name="Credits" sheetId="11" r:id="rId12"/>
+    <sheet name="Langmuir Parameters" sheetId="10" r:id="rId8"/>
+    <sheet name="Salts Data" sheetId="12" r:id="rId9"/>
+    <sheet name="Inhibitor Data" sheetId="13" r:id="rId10"/>
+    <sheet name="Credits" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="z_cabr2_a">'Salts Data'!$G$9</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="123">
   <si>
     <t>Compound ID</t>
   </si>
@@ -267,15 +266,6 @@
   </si>
   <si>
     <t>H4</t>
-  </si>
-  <si>
-    <t>Center Cage</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Like/Dislike</t>
   </si>
   <si>
     <t>Shell</t>
@@ -1018,13 +1008,13 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1033,282 +1023,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>58.44</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>-3.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>74.55</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>-3.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>110.98</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>-4.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>95.210999999999999</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>-4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6">
-        <v>199.89</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>-4.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>102.89400000000001</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>-3.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8">
-        <v>119.002</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>-3.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9">
-        <v>53.491</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10">
-        <v>84.114999999999995</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>68.010000000000005</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>-3.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAAA12E-6F5B-40FE-892B-8D367CF39330}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1325,27 +1039,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>32.04</v>
@@ -1365,7 +1079,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>46.07</v>
@@ -1385,7 +1099,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>92.09</v>
@@ -1405,7 +1119,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>62.07</v>
@@ -1425,7 +1139,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>106.12</v>
@@ -1445,7 +1159,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>150.16999999999999</v>
@@ -1468,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAAD4DB-C99C-4151-8743-02E34500745B}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -1483,159 +1197,159 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1647,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,7 +1533,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1886,7 +1600,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="18">
         <v>407.81</v>
@@ -1898,10 +1612,10 @@
         <v>0.184</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" s="10">
         <v>10.57</v>
@@ -1918,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="18">
         <v>469.8</v>
@@ -1933,7 +1647,7 @@
         <v>3.9460000000000002E-2</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I9" s="12">
         <v>10.28</v>
@@ -1950,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="18">
         <v>507.6</v>
@@ -1965,7 +1679,7 @@
         <v>5.1040000000000002E-2</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I10" s="12">
         <v>10.130000000000001</v>
@@ -1979,10 +1693,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C11" s="18">
         <v>154.58099999999999</v>
@@ -1997,7 +1711,7 @@
         <v>1.512E-2</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I11" s="10">
         <v>12.07</v>
@@ -2011,10 +1725,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="18">
         <v>373.1</v>
@@ -2029,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I12" s="12">
         <v>10.457000000000001</v>
@@ -2050,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFE52-92CE-4FEC-992A-FF5A9CFFB692}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
@@ -2068,16 +1782,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,7 +1876,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -2205,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>1.5443976418499501E-2</v>
@@ -2225,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2245,7 +1959,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2262,10 +1976,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C11" s="7">
         <v>1.8471359714770642E-4</v>
@@ -2282,10 +1996,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>3.8152492603283863E-4</v>
@@ -2672,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="23">
         <v>0</v>
@@ -2695,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="23">
         <v>4.2633965515011401</v>
@@ -2718,7 +2432,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="23">
         <v>0</v>
@@ -2856,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10">
         <v>4.6818</v>
@@ -2879,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="10">
         <v>4.6792118937450606</v>
@@ -2937,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>6</v>
@@ -2946,16 +2660,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -3077,7 +2791,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10">
         <v>2.5999999999999999E-2</v>
@@ -3191,7 +2905,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" s="10">
         <v>2.3E-2</v>
@@ -3229,7 +2943,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10">
         <v>4.2200000000000001E-2</v>
@@ -3267,7 +2981,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="10">
         <v>-1.1901299999999999</v>
@@ -3305,7 +3019,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" s="14">
         <v>7.8899999999999998E-2</v>
@@ -3528,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10">
         <v>190.982</v>
@@ -3548,7 +3262,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4">
         <v>-660</v>
@@ -3568,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4">
         <v>-680</v>
@@ -3588,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="10">
         <v>-286.94200000000001</v>
@@ -3608,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="10">
         <v>-297.15800000000002</v>
@@ -3634,589 +3348,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE349D4-1129-4225-BFFF-FB3589E12B53}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>12.25367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>13.41525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10.3552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12.389939999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9.5643999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>12.12665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.86602000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.55901000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.4717500000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5.1404800000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.1299799999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3.7491599999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.0248200000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3.0958100000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.55901000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6.9276799999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>6.9114300000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>6.2339200000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>6.2827099999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>6.06724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6">
-        <v>6.1021400000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.35354999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.41456999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>13.82287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>5.1167699999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>12.56542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4.3318099999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>12.204280000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>4.1110199999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.41456999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.43301000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -4240,19 +3371,19 @@
         <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4973,6 +4104,282 @@
       </c>
       <c r="F37" s="23">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB22BB9-6A1B-4102-AAEE-4C94989C2E79}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>58.44</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-3.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>74.55</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-3.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>110.98</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>95.210999999999999</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>199.89</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>-4.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>102.89400000000001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>119.002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-3.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>53.491</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>84.114999999999995</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1057C-FE8E-4672-A442-6B3EE9354EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EAD96-9E20-4A12-85D3-718F99614E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11115" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4485" windowWidth="21600" windowHeight="11115" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="123">
   <si>
     <t>Compound ID</t>
   </si>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
@@ -3349,10 +3349,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,36 +3554,36 @@
         <v>0</v>
       </c>
       <c r="C10" s="23">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
         <v>10</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D11" s="23">
         <v>-26.331200055758099</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E11" s="23">
         <v>3822.5148242806899</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F11" s="23">
         <v>-45381.8469139019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>-22.06505254</v>
-      </c>
-      <c r="E11">
-        <v>2760.1604400000001</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3594,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>-23.728977069999999</v>
+        <v>-22.06505254</v>
       </c>
       <c r="E12">
-        <v>3843.277306</v>
+        <v>2760.1604400000001</v>
       </c>
       <c r="F12">
-        <v>8882.4254299999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,16 +3614,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>-100</v>
+        <v>-23.728977069999999</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3843.277306</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>8882.4254299999993</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3634,13 +3634,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>-21.842441359999999</v>
+        <v>-100</v>
       </c>
       <c r="E14">
-        <v>2337.176449</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -3654,35 +3654,35 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>-21.842441359999999</v>
+      </c>
+      <c r="E15">
+        <v>2337.176449</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>-22.403651719999999</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>3171.7603869999998</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23">
-        <v>6</v>
-      </c>
-      <c r="D16" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="23">
         <v>-100</v>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="23">
         <v>-100</v>
@@ -3734,56 +3734,56 @@
         <v>1</v>
       </c>
       <c r="C19" s="23">
+        <v>8</v>
+      </c>
+      <c r="D19" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23">
+        <v>9</v>
+      </c>
+      <c r="D20" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23">
         <v>10</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D21" s="23">
         <v>-26.921927924317298</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E21" s="23">
         <v>7358.8183572326698</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F21" s="23">
         <v>-237581.84882084699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>-23.574602980000002</v>
-      </c>
-      <c r="E20">
-        <v>2708.8070149999999</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>-24.837826750000001</v>
-      </c>
-      <c r="E21">
-        <v>926.98965250000003</v>
-      </c>
-      <c r="F21">
-        <v>43614.852559999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>-100</v>
+        <v>-23.574602980000002</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2708.8070149999999</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3814,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>-22.97258845</v>
+        <v>-24.837826750000001</v>
       </c>
       <c r="E23">
-        <v>2499.2232410000001</v>
+        <v>926.98965250000003</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>43614.852559999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,56 +3834,56 @@
         <v>0</v>
       </c>
       <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>-100</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>-22.97258845</v>
+      </c>
+      <c r="E25">
+        <v>2499.2232410000001</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>-25.175152000000001</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>3089.4741450000001</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>48259.677799999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="23">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>6</v>
-      </c>
-      <c r="D25" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="23">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23">
-        <v>7</v>
-      </c>
-      <c r="D26" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="23">
         <v>-100</v>
@@ -3914,76 +3914,76 @@
         <v>0</v>
       </c>
       <c r="C28" s="23">
+        <v>7</v>
+      </c>
+      <c r="D28" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="23">
+        <v>0</v>
+      </c>
+      <c r="C29" s="23">
+        <v>8</v>
+      </c>
+      <c r="D29" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="23">
+        <v>0</v>
+      </c>
+      <c r="C30" s="23">
         <v>9</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D30" s="23">
         <v>-22.97258845</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E30" s="23">
         <v>2499.2232410000001</v>
       </c>
-      <c r="F28" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>-20.699072309999998</v>
-      </c>
-      <c r="E29">
-        <v>2147.68986</v>
-      </c>
-      <c r="F29">
-        <v>-12013.621069999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>-22.229064659999999</v>
-      </c>
-      <c r="E30">
-        <v>3534.8896070000001</v>
-      </c>
-      <c r="F30">
-        <v>-3371.30006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>-23.130700000000001</v>
-      </c>
-      <c r="E31">
-        <v>4176.1979000000001</v>
-      </c>
-      <c r="F31">
-        <v>45939.459300000002</v>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-26.331200055758099</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3822.5148242806899</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-45381.8469139019</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>-20.615956090000001</v>
+        <v>-20.699072309999998</v>
       </c>
       <c r="E32">
-        <v>2033.604317</v>
+        <v>2147.68986</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>-12013.621069999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,76 +4014,76 @@
         <v>1</v>
       </c>
       <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>-22.229064659999999</v>
+      </c>
+      <c r="E33">
+        <v>3534.8896070000001</v>
+      </c>
+      <c r="F33">
+        <v>-3371.30006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>-23.130700000000001</v>
+      </c>
+      <c r="E34">
+        <v>4176.1979000000001</v>
+      </c>
+      <c r="F34">
+        <v>45939.459300000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E35">
+        <v>2033.604317</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>-21.091724119999999</v>
       </c>
-      <c r="E33">
+      <c r="E36">
         <v>2405.3661569999999</v>
       </c>
-      <c r="F33">
+      <c r="F36">
         <v>28783</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1</v>
-      </c>
-      <c r="C34" s="23">
-        <v>6</v>
-      </c>
-      <c r="D34" s="23">
-        <v>-41.589308423376103</v>
-      </c>
-      <c r="E34" s="23">
-        <v>12568.4056539184</v>
-      </c>
-      <c r="F34" s="23">
-        <v>-984700.06756650598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="23">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23">
-        <v>7</v>
-      </c>
-      <c r="D35" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="23">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23">
-        <v>8</v>
-      </c>
-      <c r="D36" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,16 +4094,96 @@
         <v>1</v>
       </c>
       <c r="C37" s="23">
+        <v>6</v>
+      </c>
+      <c r="D37" s="23">
+        <v>-41.589308423376103</v>
+      </c>
+      <c r="E37" s="23">
+        <v>12568.4056539184</v>
+      </c>
+      <c r="F37" s="23">
+        <v>-984700.06756650598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="23">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23">
+        <v>7</v>
+      </c>
+      <c r="D38" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="23">
         <v>9</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D40" s="23">
         <v>-20.615956090000001</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E40" s="23">
         <v>2033.604317</v>
       </c>
-      <c r="F37" s="23">
-        <v>0</v>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-26.921927924317298</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7358.8183572326698</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-237581.84882084699</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EAD96-9E20-4A12-85D3-718F99614E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179FA5B-B738-4DFE-960B-A2A763C033A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4485" windowWidth="21600" windowHeight="11115" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,63 +1536,63 @@
         <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C6" s="18">
-        <v>126.19199999999999</v>
+        <v>407.81</v>
       </c>
       <c r="D6" s="13">
-        <v>3.3957999999999999</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1.9959999999999999E-2</v>
+        <v>3.629</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.184</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I6" s="10">
-        <v>15.5808</v>
+        <v>10.57</v>
       </c>
       <c r="J6" s="10">
-        <v>1.7403</v>
+        <v>8.14</v>
       </c>
       <c r="K6">
-        <v>28.01</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C7" s="18">
-        <v>304.2</v>
+        <v>469.8</v>
       </c>
       <c r="D7" s="13">
-        <v>7.3760000000000003</v>
+        <v>3.36</v>
       </c>
       <c r="E7" s="13">
-        <v>0.22500000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="F7" s="17">
-        <v>4.2849999999999999E-2</v>
+        <v>3.9460000000000002E-2</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10">
-        <v>13.773</v>
+        <v>103</v>
+      </c>
+      <c r="I7" s="12">
+        <v>10.28</v>
       </c>
       <c r="J7" s="10">
-        <v>2.911</v>
+        <v>9.8789999999999996</v>
       </c>
       <c r="K7">
-        <v>44.01</v>
+        <v>72.150000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1600,63 +1600,63 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C8" s="18">
-        <v>407.81</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3.629</v>
+        <v>507.6</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.02</v>
       </c>
       <c r="E8" s="13">
-        <v>0.184</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>98</v>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>5.1040000000000002E-2</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="10">
-        <v>10.57</v>
-      </c>
-      <c r="J8" s="10">
-        <v>8.14</v>
+        <v>106</v>
+      </c>
+      <c r="I8" s="12">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="J8" s="12">
+        <v>11.63</v>
       </c>
       <c r="K8">
-        <v>58.12</v>
+        <v>86.18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>100</v>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="18">
-        <v>469.8</v>
+        <v>304.2</v>
       </c>
       <c r="D9" s="13">
-        <v>3.36</v>
+        <v>7.3760000000000003</v>
       </c>
       <c r="E9" s="13">
-        <v>0.251</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F9" s="17">
-        <v>3.9460000000000002E-2</v>
+        <v>4.2849999999999999E-2</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="12">
-        <v>10.28</v>
+        <v>22</v>
+      </c>
+      <c r="I9" s="10">
+        <v>13.773</v>
       </c>
       <c r="J9" s="10">
-        <v>9.8789999999999996</v>
+        <v>2.911</v>
       </c>
       <c r="K9">
-        <v>72.150000000000006</v>
+        <v>44.01</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,31 +1664,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C10" s="18">
-        <v>507.6</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3.02</v>
+        <v>373.1</v>
+      </c>
+      <c r="D10" s="27">
+        <v>9</v>
       </c>
       <c r="E10" s="13">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F10" s="17">
-        <v>5.1040000000000002E-2</v>
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I10" s="12">
-        <v>10.130000000000001</v>
+        <v>10.457000000000001</v>
       </c>
       <c r="J10" s="12">
-        <v>11.63</v>
+        <v>3.6309999999999998</v>
       </c>
       <c r="K10">
-        <v>86.18</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1696,31 +1696,31 @@
         <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C11" s="18">
-        <v>154.58099999999999</v>
-      </c>
-      <c r="D11" s="11">
-        <v>5.0430000000000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1.512E-2</v>
+        <v>126.19199999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3.3957999999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1.9959999999999999E-2</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I11" s="10">
-        <v>12.07</v>
+        <v>15.5808</v>
       </c>
       <c r="J11" s="10">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="K11" s="24">
-        <v>32</v>
+        <v>1.7403</v>
+      </c>
+      <c r="K11">
+        <v>28.01</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1728,31 +1728,31 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="18">
-        <v>373.1</v>
-      </c>
-      <c r="D12" s="27">
-        <v>9</v>
+        <v>154.58099999999999</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5.0430000000000001</v>
       </c>
       <c r="E12" s="13">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0</v>
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.512E-2</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="12">
-        <v>10.457000000000001</v>
-      </c>
-      <c r="J12" s="12">
-        <v>3.6309999999999998</v>
-      </c>
-      <c r="K12">
-        <v>34.08</v>
+        <v>116</v>
+      </c>
+      <c r="I12" s="10">
+        <v>12.07</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="K12" s="24">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1765,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,39 +1879,39 @@
         <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2.57526399698849E-4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>9.1388020629344494E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.57526399698849E-4</v>
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>1.5443976418499501E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.78771335163605E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>5.8185831753262703E-21</v>
       </c>
       <c r="F6">
-        <v>9.1388020629344494E-2</v>
+        <v>0.21316356836854899</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1.1604841434668679E-8</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.11842350187371004</v>
+      <c r="B7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.5556107076564184E-4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8.2930344993050589E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,39 +1919,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C8">
-        <v>1.5443976418499501E-2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>5.78771335163605E-2</v>
-      </c>
-      <c r="E8" s="25">
-        <v>5.8185831753262703E-21</v>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.21316356836854899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.1604841434668679E-8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.11842350187371004</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2.5556107076564184E-4</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8.2930344993050589E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3.8152492603283863E-4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7.1661310148475751E-2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>1.7789107540929433E-6</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9.1534449656535732E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,19 +1979,19 @@
         <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7">
-        <v>1.8471359714770642E-4</v>
+        <v>2.57526399698849E-4</v>
       </c>
       <c r="D11" s="7">
-        <v>9.1534449656535732E-2</v>
+        <v>9.1388020629344494E-2</v>
       </c>
       <c r="E11">
-        <v>1.8471359714770642E-4</v>
+        <v>2.57526399698849E-4</v>
       </c>
       <c r="F11">
-        <v>9.1534449656535732E-2</v>
+        <v>9.1388020629344494E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,16 +1999,16 @@
         <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12">
-        <v>3.8152492603283863E-4</v>
-      </c>
-      <c r="D12">
-        <v>7.1661310148475751E-2</v>
+        <v>115</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.8471359714770642E-4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.1534449656535732E-2</v>
       </c>
       <c r="E12">
-        <v>1.7789107540929433E-6</v>
+        <v>1.8471359714770642E-4</v>
       </c>
       <c r="F12">
         <v>9.1534449656535732E-2</v>
@@ -2226,7 +2226,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -2360,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
@@ -2383,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>100</v>
@@ -2406,7 +2406,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>114</v>
@@ -2429,7 +2429,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>105</v>
@@ -2521,7 +2521,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -2567,7 +2567,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
@@ -2590,7 +2590,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>115</v>
@@ -3108,7 +3108,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,43 +3447,43 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>-23.064578959999999</v>
-      </c>
-      <c r="E5">
-        <v>2475.867338</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="23">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>-24.982430879999999</v>
-      </c>
-      <c r="E6">
-        <v>2743.7375419999998</v>
-      </c>
-      <c r="F6">
-        <v>31948.649580000001</v>
+      <c r="D6" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,23 +3507,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
+      <c r="D8">
+        <v>-24.982430879999999</v>
+      </c>
+      <c r="E8">
+        <v>2743.7375419999998</v>
+      </c>
+      <c r="F8">
+        <v>31948.649580000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,32 +3537,32 @@
         <v>8</v>
       </c>
       <c r="D9" s="23">
-        <v>-100</v>
+        <v>-26.331200055758099</v>
       </c>
       <c r="E9" s="23">
-        <v>0</v>
+        <v>3822.5148242806899</v>
       </c>
       <c r="F9" s="23">
-        <v>0</v>
+        <v>-45381.8469139019</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>9</v>
       </c>
-      <c r="D10" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="D10">
+        <v>-23.064578959999999</v>
+      </c>
+      <c r="E10">
+        <v>2475.867338</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -3577,13 +3577,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="23">
-        <v>-26.331200055758099</v>
+        <v>-100</v>
       </c>
       <c r="E11" s="23">
-        <v>3822.5148242806899</v>
+        <v>0</v>
       </c>
       <c r="F11" s="23">
-        <v>-45381.8469139019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3647,42 +3647,42 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>-21.842441359999999</v>
-      </c>
-      <c r="E15">
-        <v>2337.176449</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>-22.403651719999999</v>
-      </c>
-      <c r="E16">
-        <v>3171.7603869999998</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3707,22 +3707,22 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
         <v>7</v>
       </c>
-      <c r="D18" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
+      <c r="D18">
+        <v>-22.403651719999999</v>
+      </c>
+      <c r="E18">
+        <v>3171.7603869999998</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
     </row>
@@ -3737,32 +3737,32 @@
         <v>8</v>
       </c>
       <c r="D19" s="23">
-        <v>-100</v>
+        <v>-26.921927924317298</v>
       </c>
       <c r="E19" s="23">
-        <v>0</v>
+        <v>7358.8183572326698</v>
       </c>
       <c r="F19" s="23">
-        <v>0</v>
+        <v>-237581.84882084699</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="23">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
         <v>9</v>
       </c>
-      <c r="D20" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="D20">
+        <v>-21.842441359999999</v>
+      </c>
+      <c r="E20">
+        <v>2337.176449</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
@@ -3777,13 +3777,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="23">
-        <v>-26.921927924317298</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="23">
-        <v>7358.8183572326698</v>
+        <v>0</v>
       </c>
       <c r="F21" s="23">
-        <v>-237581.84882084699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3847,43 +3847,43 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>-22.97258845</v>
-      </c>
-      <c r="E25">
-        <v>2499.2232410000001</v>
-      </c>
-      <c r="F25">
+      <c r="D25" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="23">
+        <v>0</v>
+      </c>
+      <c r="C26" s="23">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>-25.175152000000001</v>
-      </c>
-      <c r="E26">
-        <v>3089.4741450000001</v>
-      </c>
-      <c r="F26">
-        <v>48259.677799999998</v>
+      <c r="D26" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,83 +3907,83 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="23">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
         <v>7</v>
       </c>
-      <c r="D28" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <v>0</v>
+      <c r="D28">
+        <v>-25.175152000000001</v>
+      </c>
+      <c r="E28">
+        <v>3089.4741450000001</v>
+      </c>
+      <c r="F28">
+        <v>48259.677799999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="23">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
         <v>8</v>
       </c>
-      <c r="D29" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
+      <c r="D29" s="4">
+        <v>-26.331200055758099</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3822.5148242806899</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-45381.8469139019</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="23">
-        <v>0</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30">
         <v>-22.97258845</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30">
         <v>2499.2232410000001</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="23">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23">
         <v>10</v>
       </c>
-      <c r="D31" s="4">
-        <v>-26.331200055758099</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3822.5148242806899</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-45381.8469139019</v>
+      <c r="D31" s="23">
+        <v>-22.97258845</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2499.2232410000001</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,43 +4047,43 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="23">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>-20.615956090000001</v>
-      </c>
-      <c r="E35">
-        <v>2033.604317</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="D35" s="23">
+        <v>-41.589308423376103</v>
+      </c>
+      <c r="E35" s="23">
+        <v>12568.4056539184</v>
+      </c>
+      <c r="F35" s="23">
+        <v>-984700.06756650598</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23">
         <v>5</v>
       </c>
-      <c r="D36">
-        <v>-21.091724119999999</v>
-      </c>
-      <c r="E36">
-        <v>2405.3661569999999</v>
-      </c>
-      <c r="F36">
-        <v>28783</v>
+      <c r="D36" s="23">
+        <v>-100</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,96 +4097,99 @@
         <v>6</v>
       </c>
       <c r="D37" s="23">
-        <v>-41.589308423376103</v>
+        <v>-100</v>
       </c>
       <c r="E37" s="23">
-        <v>12568.4056539184</v>
+        <v>0</v>
       </c>
       <c r="F37" s="23">
-        <v>-984700.06756650598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="23">
-        <v>1</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
         <v>7</v>
       </c>
-      <c r="D38" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E38" s="23">
-        <v>0</v>
-      </c>
-      <c r="F38" s="23">
-        <v>0</v>
+      <c r="D38">
+        <v>-21.091724119999999</v>
+      </c>
+      <c r="E38">
+        <v>2405.3661569999999</v>
+      </c>
+      <c r="F38">
+        <v>28783</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="23">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
         <v>8</v>
       </c>
-      <c r="D39" s="23">
-        <v>-100</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
+      <c r="D39" s="4">
+        <v>-26.921927924317298</v>
+      </c>
+      <c r="E39" s="4">
+        <v>7358.8183572326698</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-237581.84882084699</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="23">
-        <v>1</v>
-      </c>
-      <c r="C40" s="23">
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
         <v>9</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40">
         <v>-20.615956090000001</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40">
         <v>2033.604317</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23">
         <v>10</v>
       </c>
-      <c r="D41" s="4">
-        <v>-26.921927924317298</v>
-      </c>
-      <c r="E41" s="4">
-        <v>7358.8183572326698</v>
-      </c>
-      <c r="F41" s="4">
-        <v>-237581.84882084699</v>
+      <c r="D41" s="23">
+        <v>-20.615956090000001</v>
+      </c>
+      <c r="E41" s="23">
+        <v>2033.604317</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karst\Dropbox\Research\Dr. Sum\Gas-Hydrate-Equilibrium-Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179FA5B-B738-4DFE-960B-A2A763C033A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5FAC6-DAB0-4DD9-8515-D475AA4C053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="21510" windowHeight="9015" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EFE52-92CE-4FEC-992A-FF5A9CFFB692}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>129.659115979566</v>
+        <v>6.6252669047358381E-2</v>
       </c>
       <c r="D3">
-        <v>3.64091429994386E-2</v>
+        <v>6.5528833687120591E-2</v>
       </c>
       <c r="E3" s="25">
         <v>7.8212786400165997E-9</v>
@@ -3351,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5C889D-4057-4DC7-9727-42E8A897B0CB}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
